--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -27,7 +27,7 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FF0000"/>
+      <color rgb="00000000"/>
     </font>
   </fonts>
   <fills count="3">

--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -56,7 +56,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -85,12 +85,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00DDD9C4"/>
         <bgColor rgb="00DDD9C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +126,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9549,7 +9543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I278"/>
+  <dimension ref="B1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9718,1869 +9712,245 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>iip_heat_proc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>pri_coal</t>
+          <t>iip_steel_crudesteel</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>iip_coke</t>
+          <t>iip_steel_sponge_iron</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>sec_heavy_fuel_oil</t>
+          <t>iip_steel_scrap</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>iip_steel_sinter</t>
+          <t>iip_steel_iron_ore</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>iip_steel_oxygen</t>
+          <t>iip_steel_raw_iron</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>iip_steel_iron_pellets</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>sec_biogas</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>sec_heating_oil</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>pri_coal</t>
+          <t>sec_H2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>iip_coke</t>
+          <t>pri_natural_gas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>sec_heavy_fuel_oil</t>
+          <t>sec_natural_gas_syn</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>iip_steel_sinter</t>
+          <t>pri_biomass</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>iip_steel_oxygen</t>
+          <t>pri_waste</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>pri_geoth_heat</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>pri_hydro_energy</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>pri_uran</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>pri_deuterium</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>iip_heat_proc</t>
+          <t>pri_solar_radiation</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>iip_steel_crudesteel</t>
+          <t>sec_elec</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>pri_wind_energy_off</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>pri_wind_energy_on</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>sec_heat_low</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>iip_heat_proc</t>
+          <t>sec_heat_high</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>iip_steel_crudesteel</t>
+          <t>emi_CO2_f_x2x</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>iip_steel_blafu_slag</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>emi_CO2_f_ind</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>iip_steel_oxygen</t>
+          <t>emi_CH4_f_ind</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>iip_steel_sponge_iron</t>
+          <t>emi_N2O_f_ind</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>exo_steel</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>CO2_f_pow</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>pri_crude_oil</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="inlineStr">
         <is>
-          <t>iip_steel_oxygen</t>
+          <t>[emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="C46" t="inlineStr">
         <is>
-          <t>iip_steel_scrap</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>iip_steel_oxygen</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>iip_steel_scrap</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_ore</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>iip_steel_oxygen</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>iip_steel_raw_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>iip_steel_oxygen</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>iip_steel_raw_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>iip_coke</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_ore</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_ore</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>pri_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>pri_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_ore</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_ore</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_pellets</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>sec_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>pri_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>pri_biomass</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>pri_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>sec_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>pri_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>pri_waste</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>pri_geoth_heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>pri_geoth_heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>pri_geoth_heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>pri_geoth_heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>pri_hydro_energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>pri_hydro_energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>pri_hydro_energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>pri_uran</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>pri_deuterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>pri_solar_radiation</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>pri_solar_radiation</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>pri_solar_radiation</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>pri_wind_energy_off</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>pri_wind_energy_off</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>pri_wind_energy_on</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_x2x</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_x2x_neg_reusable</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_x2x_neg_reusable</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_x2x_neg_reusable</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>pri_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>pri_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>pri_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>iip_coke</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_ore</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>iip_steel_oxygen</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>iip_steel_scrap</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>iip_steel_raw_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>iip_steel_blafu_slag</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>iip_steel_raw_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>iip_steel_blafu_slag</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>iip_steel_raw_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>iip_steel_blafu_slag</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>iip_heat_proc</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>exo_steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>exo_steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>iip_steel_crudesteel</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>iip_steel_crudesteel</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>iip_steel_crudesteel</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>iip_steel_crudesteel</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>iip_steel_crudesteel</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>iip_steel_crudesteel</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_pellets</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>iip_steel_sinter</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>iip_steel_sinter</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>iip_steel_sponge_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>CO2_f_pow</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>CO2_f_pow</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>CO2_f_pow</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>CO2_f_pow</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>CO2_f_pow</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>CO2_f_pow</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>CO2_f_pow</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>pri_biomass</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>pri_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>pri_crude_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>pri_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>[emi_CO2_f_x2x_neg_reusable</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="C264" t="inlineStr">
-        <is>
           <t>emi_CO2_f_x2x_neg_stored]</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>pri_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_x2x</t>
         </is>
       </c>
     </row>
@@ -11595,7 +9965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I278"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11743,1888 +10113,481 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_blafu_1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_blafu_ccs_1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_boiler_0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_casting_0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_casting_1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_dirred_1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_elefu_0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_elefu_1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_hyddri_1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_oxyfu_0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_oxyfu_1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_0</t>
+          <t>ind_steel_pellet_1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>ind_steel_sinter_0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>ind_steel_sinter_1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>ind_steel_sponge_1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_gt_biogas</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_gt_heating_oil</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_gt_hydrogen</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_gt_natgas</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_gt_sng</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_st_biomass</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_st_coal</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_st_heating_oil</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_st_natgas</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_1</t>
+          <t>pow_combustion_st_waste</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_geothermal_orc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_geothermal_orc_chp</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_geothermal_st</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_geothermal_st_chp</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_hydro_pond</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_hydro_ror</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_hydro_ror_pond</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_nuclear_fis</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_nuclear_fus</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_photovoltaic_cts_roof</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_photovoltaic_fiel_gm</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_photovoltaic_hh_roof</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="C46" t="inlineStr">
         <is>
-          <t>ind_steel_blafu_ccs_1</t>
+          <t>pow_storage_cts</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="C47" t="inlineStr">
         <is>
-          <t>ind_steel_boiler_0</t>
+          <t>pow_storage_hh</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="C48" t="inlineStr">
         <is>
-          <t>ind_steel_boiler_0</t>
+          <t>pow_storage_hydr</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="C49" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>pow_storage_ind</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="C50" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>pow_storage_util</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="C51" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>pow_wind-turbine_off_fb</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="C52" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>pow_wind-turbine_off_fl</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="C53" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>pow_wind-turbine_on</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="C54" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>x2x_g2p_pemfc_ls</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="C55" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>x2x_g2p_sofc_ls</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="C56" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>x2x_import_biogas</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="C57" t="inlineStr">
         <is>
-          <t>ind_steel_casting_0</t>
+          <t>x2x_import_biomass</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="C58" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_import_coal</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="C59" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_import_crudeoil</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="C60" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_import_elec</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="C61" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_import_h2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="C62" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_import_natural_gas</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="C63" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_import_sng</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="C64" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_other_daccs</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="C65" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_p2gas_aec</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="C66" t="inlineStr">
         <is>
-          <t>ind_steel_casting_1</t>
+          <t>x2x_p2gas_bioem</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="C67" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_p2gas_biom</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="C68" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_p2gas_pemec</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="C69" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_p2gas_sabm</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="C70" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_p2gas_soec</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="C71" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_storage_ch4_biogas</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="C72" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_storage_ch4_natural_gas</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="C73" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_storage_ch4_sng</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="C74" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_storage_h2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="C75" t="inlineStr">
         <is>
-          <t>ind_steel_dirred_1</t>
+          <t>x2x_storage_h2_lohc</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="C76" t="inlineStr">
         <is>
-          <t>ind_steel_elefu_0</t>
+          <t>x2x_x2gas_mpyr</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="C77" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>ind_steel_elefu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>ind_steel_hyddri_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>ind_steel_hyddri_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>ind_steel_hyddri_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>ind_steel_hyddri_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>ind_steel_oxyfu_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>ind_steel_pellet_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>ind_steel_pellet_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>ind_steel_pellet_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>ind_steel_pellet_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>ind_steel_pellet_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>ind_steel_pellet_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>ind_steel_pellet_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>ind_steel_sinter_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>ind_steel_sponge_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_natgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_natgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_natgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_sng</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_sng</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>pow_combustion_gt_sng</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_biomass</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_biomass</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_natgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_natgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_natgas</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_waste</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_waste</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>pow_combustion_st_waste</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>pow_geothermal_orc</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>pow_geothermal_orc</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>pow_geothermal_orc_chp</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>pow_geothermal_orc_chp</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>pow_geothermal_orc_chp</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>pow_geothermal_st</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>pow_geothermal_st</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>pow_geothermal_st_chp</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>pow_geothermal_st_chp</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>pow_geothermal_st_chp</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>pow_hydro_pond</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>pow_hydro_pond</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>pow_hydro_ror</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>pow_hydro_ror</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>pow_hydro_ror_pond</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>pow_hydro_ror_pond</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>pow_nuclear_fis</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>pow_nuclear_fis</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>pow_nuclear_fus</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>pow_nuclear_fus</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>pow_photovoltaic_cts_roof</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>pow_photovoltaic_cts_roof</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>pow_photovoltaic_fiel_gm</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>pow_photovoltaic_fiel_gm</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>pow_photovoltaic_hh_roof</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>pow_photovoltaic_hh_roof</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>pow_storage_cts</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>pow_storage_cts</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>pow_storage_hh</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>pow_storage_hh</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>pow_storage_hydr</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>pow_storage_hydr</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>pow_storage_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>pow_storage_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>pow_storage_util</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>pow_storage_util</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>pow_wind-turbine_off_fb</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>pow_wind-turbine_off_fb</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>pow_wind-turbine_off_fl</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>pow_wind-turbine_off_fl</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>pow_wind-turbine_on</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>pow_wind-turbine_on</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>x2x_g2p_pemfc_ls</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>x2x_g2p_pemfc_ls</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>x2x_g2p_pemfc_ls</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>x2x_g2p_sofc_ls</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>x2x_g2p_sofc_ls</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>x2x_g2p_sofc_ls</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>x2x_import_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>x2x_import_biomass</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>x2x_import_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>x2x_import_crudeoil</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>x2x_import_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>x2x_import_h2</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>x2x_import_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>x2x_import_sng</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>x2x_other_daccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>x2x_other_daccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>x2x_other_daccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>x2x_other_daccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>x2x_other_daccs</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_aec</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_aec</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_aec</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_bioem</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_bioem</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_bioem</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_bioem</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_pemec</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_pemec</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_pemec</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_soec</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_soec</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_soec</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>x2x_storage_ch4_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>x2x_storage_ch4_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>x2x_storage_ch4_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>x2x_storage_ch4_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>x2x_storage_ch4_sng</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>x2x_storage_ch4_sng</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>x2x_storage_h2</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>x2x_storage_h2</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>x2x_storage_h2_lohc</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>x2x_storage_h2_lohc</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="C278" t="inlineStr">
         <is>
           <t>x2x_x2gas_sr</t>
         </is>

--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -9654,303 +9654,518 @@
       </c>
     </row>
     <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>sec_biogas</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>emi_CO2_f_ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENV</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>emi_CO2_f_x2x_neg_reusable</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pri_uran</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ENV</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>emi_N2O_f_ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>iip_steel_oxygen</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>iip_steel_iron_pellets</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>exo_steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pri_deuterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pri_coal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>iip_steel_blafu_slag</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pri_crude_oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pri_hydro_energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sec_methane</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sec_heating_oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sec_hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sec_heat_low</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>iip_heat_proc</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>sec_elec_ind</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pri_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>pri_biomass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>pri_waste</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CO2_f_pow</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ENV</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>emi_CO2_f_x2x_neg_stored]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>iip_coke</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>pri_solar_radiation</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ENV</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>emi_CH4_f_ind</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>iip_steel_raw_iron</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>iip_steel_crudesteel</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>pri_geoth_heat</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>pri_wind_energy_on</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>iip_steel_scrap</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sec_elec</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>sec_natural_gas_syn</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ENV</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[emi_CO2_f_x2x_neg_reusable</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>iip_steel_iron_ore</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>pri_natural_gas</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>pri_wind_energy_off</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>iip_steel_sinter</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>iip_steel_oxygen</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>iip_heat_proc</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>iip_steel_crudesteel</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="inlineStr">
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MAT</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>iip_steel_sponge_iron</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>iip_steel_scrap</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_ore</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>iip_steel_raw_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>iip_steel_iron_pellets</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sec_heating_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="inlineStr">
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>sec_heat_high</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ENV</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>emi_CO2_f_x2x</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>sec_H2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>pri_natural_gas</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>pri_biomass</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>pri_waste</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>pri_geoth_heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>pri_hydro_energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>pri_uran</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>pri_deuterium</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>pri_solar_radiation</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>pri_wind_energy_off</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>pri_wind_energy_on</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_x2x</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_x2x_neg_reusable</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>iip_steel_blafu_slag</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>emi_CH4_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>emi_N2O_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>exo_steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CO2_f_pow</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>pri_crude_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>[emi_CO2_f_x2x_neg_reusable</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>emi_CO2_f_x2x_neg_stored]</t>
         </is>
       </c>
     </row>
@@ -10076,6 +10291,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>ind_source_steel_coke</t>
@@ -10083,6 +10303,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>ind_source_steel_iron_ore</t>
@@ -10090,6 +10315,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>ind_source_steel_oxygen</t>
@@ -10097,6 +10327,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>ind_source_steel_scrap_iron</t>
@@ -10104,6 +10339,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>ind_steel_blafu_0</t>
@@ -10111,6 +10351,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>ind_steel_blafu_1</t>
@@ -10118,6 +10363,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>ind_steel_blafu_ccs_1</t>
@@ -10125,6 +10375,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>ind_steel_boiler_0</t>
@@ -10132,6 +10387,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>ind_steel_casting_0</t>
@@ -10139,6 +10399,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>ind_steel_casting_1</t>
@@ -10146,6 +10411,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>ind_steel_dirred_1</t>
@@ -10153,6 +10423,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>ind_steel_elefu_0</t>
@@ -10160,6 +10435,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>ind_steel_elefu_1</t>
@@ -10167,6 +10447,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>ind_steel_hyddri_1</t>
@@ -10174,6 +10459,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>ind_steel_oxyfu_0</t>
@@ -10181,6 +10471,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>ind_steel_oxyfu_1</t>
@@ -10188,6 +10483,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>ind_steel_pellet_1</t>
@@ -10195,6 +10495,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>ind_steel_sinter_0</t>
@@ -10202,6 +10507,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>ind_steel_sinter_1</t>
@@ -10209,6 +10519,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>ind_steel_sponge_1</t>
@@ -10216,6 +10531,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>pow_combustion_gt_biogas</t>
@@ -10223,6 +10543,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>pow_combustion_gt_heating_oil</t>
@@ -10230,6 +10555,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>pow_combustion_gt_hydrogen</t>
@@ -10237,6 +10567,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>pow_combustion_gt_natgas</t>
@@ -10244,6 +10579,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>pow_combustion_gt_sng</t>
@@ -10251,6 +10591,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>pow_combustion_st_biomass</t>
@@ -10258,6 +10603,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>pow_combustion_st_coal</t>
@@ -10265,6 +10615,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>pow_combustion_st_heating_oil</t>
@@ -10272,6 +10627,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>pow_combustion_st_natgas</t>
@@ -10279,6 +10639,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>pow_combustion_st_waste</t>
@@ -10286,6 +10651,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>pow_geothermal_orc</t>
@@ -10293,6 +10663,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CHP</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>pow_geothermal_orc_chp</t>
@@ -10300,6 +10675,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>pow_geothermal_st</t>
@@ -10307,6 +10687,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CHP</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>pow_geothermal_st_chp</t>
@@ -10314,6 +10699,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>pow_hydro_pond</t>
@@ -10321,6 +10711,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>pow_hydro_ror</t>
@@ -10328,6 +10723,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>pow_hydro_ror_pond</t>
@@ -10335,6 +10735,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>pow_nuclear_fis</t>
@@ -10342,6 +10747,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>pow_nuclear_fus</t>
@@ -10349,6 +10759,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>pow_photovoltaic_cts_roof</t>
@@ -10356,6 +10771,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>pow_photovoltaic_fiel_gm</t>
@@ -10363,6 +10783,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>pow_photovoltaic_hh_roof</t>
@@ -10370,6 +10795,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>pow_storage_cts</t>
@@ -10377,6 +10807,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>pow_storage_hh</t>
@@ -10384,6 +10819,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>pow_storage_hydr</t>
@@ -10391,6 +10831,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>pow_storage_ind</t>
@@ -10398,6 +10843,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>pow_storage_util</t>
@@ -10405,6 +10855,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>pow_wind-turbine_off_fb</t>
@@ -10412,6 +10867,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>pow_wind-turbine_off_fl</t>
@@ -10419,6 +10879,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>pow_wind-turbine_on</t>
@@ -10426,6 +10891,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>x2x_g2p_pemfc_ls</t>
@@ -10433,6 +10903,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>x2x_g2p_sofc_ls</t>
@@ -10440,6 +10915,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>x2x_import_biogas</t>
@@ -10447,6 +10927,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>x2x_import_biomass</t>
@@ -10454,6 +10939,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>x2x_import_coal</t>
@@ -10461,6 +10951,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>x2x_import_crudeoil</t>
@@ -10468,6 +10963,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>x2x_import_elec</t>
@@ -10475,6 +10975,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>x2x_import_h2</t>
@@ -10482,6 +10987,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>x2x_import_natural_gas</t>
@@ -10489,6 +10999,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>x2x_import_sng</t>
@@ -10496,6 +11011,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>x2x_other_daccs</t>
@@ -10503,6 +11023,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>x2x_p2gas_aec</t>
@@ -10510,6 +11035,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>x2x_p2gas_bioem</t>
@@ -10517,6 +11047,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>x2x_p2gas_biom</t>
@@ -10524,6 +11059,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>x2x_p2gas_pemec</t>
@@ -10531,6 +11071,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>x2x_p2gas_sabm</t>
@@ -10538,6 +11083,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>x2x_p2gas_soec</t>
@@ -10545,6 +11095,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>x2x_storage_ch4_biogas</t>
@@ -10552,6 +11107,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>x2x_storage_ch4_natural_gas</t>
@@ -10559,6 +11119,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>x2x_storage_ch4_sng</t>
@@ -10566,6 +11131,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>x2x_storage_h2</t>
@@ -10573,6 +11143,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>x2x_storage_h2_lohc</t>
@@ -10580,6 +11155,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>x2x_x2gas_mpyr</t>
@@ -10587,6 +11167,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>x2x_x2gas_sr</t>

--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -10233,7 +10233,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sec_H2</t>
+          <t>pri_wind_energy_on</t>
         </is>
       </c>
     </row>
@@ -10245,31 +10245,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>iip_steel_raw_iron</t>
+          <t>iip_steel_crudesteel</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x_neg_reusable</t>
+          <t>pri_coal</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sec_heating_oil</t>
+          <t>iip_steel_oxygen</t>
         </is>
       </c>
     </row>
@@ -10281,19 +10281,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pri_natural_gas</t>
+          <t>sec_H2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[emi_CO2_f_x2x_neg_reusable</t>
+          <t>pri_solar_radiation</t>
         </is>
       </c>
     </row>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pri_waste</t>
+          <t>sec_natural_gas_syn</t>
         </is>
       </c>
     </row>
@@ -10317,67 +10317,67 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sec_heat_high</t>
+          <t>iip_steel_blafu_slag</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sec_natural_gas_syn</t>
+          <t>exo_steel</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>emi_N2O_f_ind</t>
+          <t>CO2_f_pow</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>iip_steel_sinter</t>
+          <t>emi_CO2_f_x2x_neg_stored]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>iip_steel_iron_pellets</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>iip_steel_scrap</t>
+          <t>pri_crude_oil</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>iip_steel_blafu_slag</t>
+          <t>sec_heat_high</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>emi_CH4_f_ind</t>
+          <t>emi_N2O_f_ind</t>
         </is>
       </c>
     </row>
@@ -10413,31 +10413,31 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sec_biogas</t>
+          <t>iip_coke</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>pri_uran</t>
+          <t>emi_CO2_f_x2x</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x</t>
+          <t>pri_deuterium</t>
         </is>
       </c>
     </row>
@@ -10449,19 +10449,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>pri_hydro_energy</t>
+          <t>sec_elec</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>pri_geoth_heat</t>
+          <t>emi_CH4_f_ind</t>
         </is>
       </c>
     </row>
@@ -10473,19 +10473,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pri_coal</t>
+          <t>sec_hydrogen</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>emi_CO2_f_ind</t>
+          <t>iip_steel_iron_ore</t>
         </is>
       </c>
     </row>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>iip_steel_iron_ore</t>
+          <t>iip_steel_scrap</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pri_crude_oil</t>
+          <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>pri_solar_radiation</t>
+          <t>sec_heat_low</t>
         </is>
       </c>
     </row>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pri_biomass</t>
+          <t>iip_heat_proc</t>
         </is>
       </c>
     </row>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>pri_deuterium</t>
+          <t>pri_geoth_heat</t>
         </is>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pri_wind_energy_on</t>
+          <t>pri_wind_energy_off</t>
         </is>
       </c>
     </row>
@@ -10581,19 +10581,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sec_heavy_fuel_oil</t>
+          <t>pri_uran</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>iip_steel_oxygen</t>
+          <t>sec_biogas</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>iip_heat_proc</t>
+          <t>pri_natural_gas</t>
         </is>
       </c>
     </row>
@@ -10617,19 +10617,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>iip_steel_sponge_iron</t>
+          <t>iip_steel_raw_iron</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>iip_steel_iron_pellets</t>
+          <t>emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
@@ -10641,43 +10641,43 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sec_heat_low</t>
+          <t>pri_waste</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>emi_CO2_f_ind</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sec_elec</t>
+          <t>iip_steel_sponge_iron</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>pri_wind_energy_off</t>
+          <t>[emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>iip_coke</t>
+          <t>sec_heating_oil</t>
         </is>
       </c>
     </row>
@@ -10701,43 +10701,43 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CO2_f_pow</t>
+          <t>pri_biomass</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>exo_steel</t>
+          <t>iip_steel_sinter</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x_neg_stored]</t>
+          <t>sec_elec_ind</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>iip_steel_crudesteel</t>
+          <t>pri_hydro_energy</t>
         </is>
       </c>
     </row>

--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -10233,19 +10233,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pri_wind_energy_on</t>
+          <t>iip_heat_proc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>iip_steel_crudesteel</t>
+          <t>pri_wind_energy_on</t>
         </is>
       </c>
     </row>
@@ -10257,31 +10257,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pri_coal</t>
+          <t>sec_biogas</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>iip_steel_oxygen</t>
+          <t>sec_elec</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sec_H2</t>
+          <t>iip_steel_iron_pellets</t>
         </is>
       </c>
     </row>
@@ -10293,19 +10293,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pri_solar_radiation</t>
+          <t>sec_heat_low</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sec_natural_gas_syn</t>
+          <t>emi_CH4_f_ind</t>
         </is>
       </c>
     </row>
@@ -10317,19 +10317,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>iip_steel_blafu_slag</t>
+          <t>sec_hydrogen</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>exo_steel</t>
+          <t>emi_N2O_f_ind</t>
         </is>
       </c>
     </row>
@@ -10341,31 +10341,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CO2_f_pow</t>
+          <t>sec_H2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x_neg_stored]</t>
+          <t>sec_natural_gas_syn</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>iip_steel_iron_pellets</t>
+          <t>iip_steel_blafu_slag</t>
         </is>
       </c>
     </row>
@@ -10377,31 +10377,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pri_crude_oil</t>
+          <t>pri_natural_gas</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sec_heat_high</t>
+          <t>iip_steel_sinter</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>emi_N2O_f_ind</t>
+          <t>sec_heating_oil</t>
         </is>
       </c>
     </row>
@@ -10413,19 +10413,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>iip_coke</t>
+          <t>sec_elec_ind</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x</t>
+          <t>pri_biomass</t>
         </is>
       </c>
     </row>
@@ -10437,43 +10437,43 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>pri_deuterium</t>
+          <t>pri_wind_energy_off</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sec_elec</t>
+          <t>iip_steel_scrap</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>emi_CH4_f_ind</t>
+          <t>sec_methane</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>iip_steel_crudesteel</t>
         </is>
       </c>
     </row>
@@ -10485,19 +10485,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>iip_steel_iron_ore</t>
+          <t>iip_steel_raw_iron</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>iip_steel_scrap</t>
+          <t>sec_heat_high</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sec_heavy_fuel_oil</t>
+          <t>pri_hydro_energy</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sec_heat_low</t>
+          <t>pri_solar_radiation</t>
         </is>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>iip_coke</t>
         </is>
       </c>
     </row>
@@ -10545,19 +10545,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>iip_heat_proc</t>
+          <t>pri_crude_oil</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>pri_geoth_heat</t>
+          <t>iip_steel_oxygen</t>
         </is>
       </c>
     </row>
@@ -10569,19 +10569,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pri_wind_energy_off</t>
+          <t>pri_waste</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>pri_uran</t>
+          <t>emi_CO2_f_x2x_neg_stored]</t>
         </is>
       </c>
     </row>
@@ -10593,79 +10593,79 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sec_biogas</t>
+          <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pri_natural_gas</t>
+          <t>emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>iip_steel_raw_iron</t>
+          <t>pri_geoth_heat</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x_neg_reusable</t>
+          <t>iip_steel_iron_ore</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>pri_waste</t>
+          <t>exo_steel</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>emi_CO2_f_ind</t>
+          <t>pri_uran</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>iip_steel_sponge_iron</t>
+          <t>CO2_f_pow</t>
         </is>
       </c>
     </row>
@@ -10684,12 +10684,12 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sec_heating_oil</t>
+          <t>emi_CO2_f_ind</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pri_biomass</t>
+          <t>pri_deuterium</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>iip_steel_sinter</t>
+          <t>iip_steel_sponge_iron</t>
         </is>
       </c>
     </row>
@@ -10725,19 +10725,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>pri_coal</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pri_hydro_energy</t>
+          <t>emi_CO2_f_x2x</t>
         </is>
       </c>
     </row>

--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -10228,36 +10228,36 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>iip_heat_proc</t>
+          <t>iip_steel_oxygen</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pri_wind_energy_on</t>
+          <t>iip_steel_sinter</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sec_biogas</t>
+          <t>iip_steel_scrap</t>
         </is>
       </c>
     </row>
@@ -10269,19 +10269,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sec_elec</t>
+          <t>pri_uran</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>iip_steel_iron_pellets</t>
+          <t>emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
@@ -10293,43 +10293,43 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sec_heat_low</t>
+          <t>sec_heat_high</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>emi_CH4_f_ind</t>
+          <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>emi_CH4_f_ind</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>emi_N2O_f_ind</t>
+          <t>CO2_f_pow</t>
         </is>
       </c>
     </row>
@@ -10341,67 +10341,67 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sec_H2</t>
+          <t>pri_biomass</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sec_natural_gas_syn</t>
+          <t>[emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>iip_steel_blafu_slag</t>
+          <t>emi_CO2_f_ind</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pri_natural_gas</t>
+          <t>iip_steel_sponge_iron</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>iip_steel_sinter</t>
+          <t>iip_coke</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sec_heating_oil</t>
+          <t>iip_steel_crudesteel</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>sec_heat_low</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>pri_biomass</t>
+          <t>pri_waste</t>
         </is>
       </c>
     </row>
@@ -10444,48 +10444,48 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>iip_steel_scrap</t>
+          <t>pri_crude_oil</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>iip_steel_raw_iron</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>iip_steel_crudesteel</t>
+          <t>sec_biogas</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>iip_steel_raw_iron</t>
+          <t>pri_hydro_energy</t>
         </is>
       </c>
     </row>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sec_heat_high</t>
+          <t>sec_elec_ind</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pri_hydro_energy</t>
+          <t>sec_natural_gas_syn</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>pri_solar_radiation</t>
+          <t>pri_geoth_heat</t>
         </is>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>iip_coke</t>
+          <t>sec_H2</t>
         </is>
       </c>
     </row>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pri_crude_oil</t>
+          <t>iip_heat_proc</t>
         </is>
       </c>
     </row>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>iip_steel_oxygen</t>
+          <t>iip_steel_iron_pellets</t>
         </is>
       </c>
     </row>
@@ -10569,79 +10569,79 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pri_waste</t>
+          <t>sec_elec</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x_neg_stored]</t>
+          <t>pri_natural_gas</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sec_heavy_fuel_oil</t>
+          <t>emi_CO2_f_x2x_neg_stored]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x_neg_reusable</t>
+          <t>exo_steel</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>pri_geoth_heat</t>
+          <t>emi_N2O_f_ind</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>iip_steel_iron_ore</t>
+          <t>pri_coal</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>exo_steel</t>
+          <t>sec_heating_oil</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>pri_uran</t>
+          <t>iip_steel_blafu_slag</t>
         </is>
       </c>
     </row>
@@ -10665,55 +10665,55 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CO2_f_pow</t>
+          <t>pri_solar_radiation</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[emi_CO2_f_x2x_neg_reusable</t>
+          <t>sec_hydrogen</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>emi_CO2_f_ind</t>
+          <t>pri_wind_energy_on</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pri_deuterium</t>
+          <t>iip_steel_iron_ore</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>iip_steel_sponge_iron</t>
+          <t>sec_methane</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>pri_coal</t>
+          <t>pri_deuterium</t>
         </is>
       </c>
     </row>

--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -511,16 +511,16 @@
     <col width="38" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="5" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
-    <col width="5" customWidth="1" min="18" max="18"/>
-    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -744,7 +744,11 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E4" s="7" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>sec_elec_ind</t>
+        </is>
+      </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
           <t>iip_coke</t>
@@ -776,7 +780,11 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>pri_coal</t>
+        </is>
+      </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
           <t>iip_steel_iron_ore</t>
@@ -808,7 +816,11 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E6" s="7" t="n"/>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>iip_coke</t>
+        </is>
+      </c>
       <c r="F6" s="7" t="inlineStr">
         <is>
           <t>iip_steel_oxygen</t>
@@ -840,7 +852,11 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>sec_heavy_fuel_oil</t>
+        </is>
+      </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
           <t>iip_steel_scrap</t>
@@ -877,20 +893,40 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-      <c r="K8" s="7" t="inlineStr"/>
-      <c r="L8" s="7" t="inlineStr"/>
-      <c r="M8" s="7" t="inlineStr"/>
-      <c r="N8" s="7" t="inlineStr"/>
-      <c r="O8" s="7" t="inlineStr"/>
-      <c r="P8" s="7" t="inlineStr"/>
-      <c r="Q8" s="7" t="inlineStr"/>
-      <c r="R8" s="7" t="inlineStr"/>
-      <c r="S8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="O8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="P8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
+      <c r="S8" s="7" t="n">
+        <v>0.6854</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="7" t="inlineStr">
@@ -909,20 +945,40 @@
           <t>pri_coal</t>
         </is>
       </c>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-      <c r="K9" s="7" t="inlineStr"/>
-      <c r="L9" s="7" t="inlineStr"/>
-      <c r="M9" s="7" t="inlineStr"/>
-      <c r="N9" s="7" t="inlineStr"/>
-      <c r="O9" s="7" t="inlineStr"/>
-      <c r="P9" s="7" t="inlineStr"/>
-      <c r="Q9" s="7" t="inlineStr"/>
-      <c r="R9" s="7" t="inlineStr"/>
-      <c r="S9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>4.7396</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="7" t="inlineStr">
@@ -941,20 +997,40 @@
           <t>iip_coke</t>
         </is>
       </c>
-      <c r="F10" s="7" t="n"/>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-      <c r="K10" s="7" t="inlineStr"/>
-      <c r="L10" s="7" t="inlineStr"/>
-      <c r="M10" s="7" t="inlineStr"/>
-      <c r="N10" s="7" t="inlineStr"/>
-      <c r="O10" s="7" t="inlineStr"/>
-      <c r="P10" s="7" t="inlineStr"/>
-      <c r="Q10" s="7" t="inlineStr"/>
-      <c r="R10" s="7" t="inlineStr"/>
-      <c r="S10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="O10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
+      <c r="S10" s="7" t="n">
+        <v>3.1158</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="7" t="inlineStr">
@@ -973,20 +1049,40 @@
           <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-      <c r="K11" s="7" t="inlineStr"/>
-      <c r="L11" s="7" t="inlineStr"/>
-      <c r="M11" s="7" t="inlineStr"/>
-      <c r="N11" s="7" t="inlineStr"/>
-      <c r="O11" s="7" t="inlineStr"/>
-      <c r="P11" s="7" t="inlineStr"/>
-      <c r="Q11" s="7" t="inlineStr"/>
-      <c r="R11" s="7" t="inlineStr"/>
-      <c r="S11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="N11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="O11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="P11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="Q11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="R11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="S11" s="7" t="n">
+        <v>0.3714</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="7" t="inlineStr">
@@ -1005,20 +1101,40 @@
           <t>iip_steel_sinter</t>
         </is>
       </c>
-      <c r="F12" s="7" t="n"/>
+      <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-      <c r="K12" s="7" t="inlineStr"/>
-      <c r="L12" s="7" t="inlineStr"/>
-      <c r="M12" s="7" t="inlineStr"/>
-      <c r="N12" s="7" t="inlineStr"/>
-      <c r="O12" s="7" t="inlineStr"/>
-      <c r="P12" s="7" t="inlineStr"/>
-      <c r="Q12" s="7" t="inlineStr"/>
-      <c r="R12" s="7" t="inlineStr"/>
-      <c r="S12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="N12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="O12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="R12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>0.9415</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="inlineStr">
@@ -1037,7 +1153,7 @@
           <t>iip_steel_oxygen</t>
         </is>
       </c>
-      <c r="F13" s="7" t="n"/>
+      <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
       <c r="I13" s="7" t="inlineStr"/>
@@ -1064,7 +1180,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E14" s="7" t="n"/>
+      <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr">
         <is>
           <t>iip_steel_raw_iron</t>
@@ -1073,16 +1189,36 @@
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
-      <c r="J14" s="7" t="inlineStr"/>
-      <c r="K14" s="7" t="inlineStr"/>
-      <c r="L14" s="7" t="inlineStr"/>
-      <c r="M14" s="7" t="inlineStr"/>
-      <c r="N14" s="7" t="inlineStr"/>
-      <c r="O14" s="7" t="inlineStr"/>
-      <c r="P14" s="7" t="inlineStr"/>
-      <c r="Q14" s="7" t="inlineStr"/>
-      <c r="R14" s="7" t="inlineStr"/>
-      <c r="S14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="inlineStr">
@@ -1096,7 +1232,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n"/>
+      <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr">
         <is>
           <t>iip_steel_blafu_slag</t>
@@ -1105,16 +1241,36 @@
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
       <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-      <c r="K15" s="7" t="inlineStr"/>
-      <c r="L15" s="7" t="inlineStr"/>
-      <c r="M15" s="7" t="inlineStr"/>
-      <c r="N15" s="7" t="inlineStr"/>
-      <c r="O15" s="7" t="inlineStr"/>
-      <c r="P15" s="7" t="inlineStr"/>
-      <c r="Q15" s="7" t="inlineStr"/>
-      <c r="R15" s="7" t="inlineStr"/>
-      <c r="S15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="7" t="inlineStr">
@@ -1128,7 +1284,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E16" s="7" t="n"/>
+      <c r="E16" s="7" t="inlineStr"/>
       <c r="F16" s="7" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -1160,7 +1316,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E17" s="7" t="n"/>
+      <c r="E17" s="7" t="inlineStr"/>
       <c r="F17" s="7" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -1192,7 +1348,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E18" s="7" t="n"/>
+      <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -1224,8 +1380,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -1233,16 +1389,36 @@
       </c>
       <c r="H19" s="7" t="inlineStr"/>
       <c r="I19" s="7" t="inlineStr"/>
-      <c r="J19" s="7" t="inlineStr"/>
-      <c r="K19" s="7" t="inlineStr"/>
-      <c r="L19" s="7" t="inlineStr"/>
-      <c r="M19" s="7" t="inlineStr"/>
-      <c r="N19" s="7" t="inlineStr"/>
-      <c r="O19" s="7" t="inlineStr"/>
-      <c r="P19" s="7" t="inlineStr"/>
-      <c r="Q19" s="7" t="inlineStr"/>
-      <c r="R19" s="7" t="inlineStr"/>
-      <c r="S19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="N19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="O19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="P19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>0.2313</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="7" t="inlineStr">
@@ -1261,7 +1437,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F20" s="7" t="n"/>
+      <c r="F20" s="7" t="inlineStr"/>
       <c r="G20" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -1269,16 +1445,36 @@
       </c>
       <c r="H20" s="7" t="inlineStr"/>
       <c r="I20" s="7" t="inlineStr"/>
-      <c r="J20" s="7" t="inlineStr"/>
-      <c r="K20" s="7" t="inlineStr"/>
-      <c r="L20" s="7" t="inlineStr"/>
-      <c r="M20" s="7" t="inlineStr"/>
-      <c r="N20" s="7" t="inlineStr"/>
-      <c r="O20" s="7" t="inlineStr"/>
-      <c r="P20" s="7" t="inlineStr"/>
-      <c r="Q20" s="7" t="inlineStr"/>
-      <c r="R20" s="7" t="inlineStr"/>
-      <c r="S20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="N20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="inlineStr">
@@ -1297,7 +1493,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F21" s="7" t="n"/>
+      <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -1305,112 +1501,180 @@
       </c>
       <c r="H21" s="7" t="inlineStr"/>
       <c r="I21" s="7" t="inlineStr"/>
-      <c r="J21" s="7" t="inlineStr"/>
-      <c r="K21" s="7" t="inlineStr"/>
-      <c r="L21" s="7" t="inlineStr"/>
-      <c r="M21" s="7" t="inlineStr"/>
-      <c r="N21" s="7" t="inlineStr"/>
-      <c r="O21" s="7" t="inlineStr"/>
-      <c r="P21" s="7" t="inlineStr"/>
-      <c r="Q21" s="7" t="inlineStr"/>
-      <c r="R21" s="7" t="inlineStr"/>
-      <c r="S21" s="7" t="inlineStr"/>
+      <c r="J21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="N21" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="O21" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="R21" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="S21" s="7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>ind_steel_blafu_1</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E22" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec_ind</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="n"/>
-      <c r="G22" s="8" t="inlineStr"/>
-      <c r="H22" s="8" t="inlineStr"/>
-      <c r="I22" s="8" t="inlineStr"/>
-      <c r="J22" s="8" t="inlineStr"/>
-      <c r="K22" s="8" t="inlineStr"/>
-      <c r="L22" s="8" t="inlineStr"/>
-      <c r="M22" s="8" t="inlineStr"/>
-      <c r="N22" s="8" t="inlineStr"/>
-      <c r="O22" s="8" t="inlineStr"/>
-      <c r="P22" s="8" t="inlineStr"/>
-      <c r="Q22" s="8" t="inlineStr"/>
-      <c r="R22" s="8" t="inlineStr"/>
-      <c r="S22" s="8" t="inlineStr"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>ind_steel_blafu_0</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>NCAP_TLIFE</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="N22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="O22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="P22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="R22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>ind_steel_blafu_1</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr"/>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="inlineStr">
-        <is>
-          <t>pri_coal</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="n"/>
-      <c r="G23" s="8" t="inlineStr"/>
-      <c r="H23" s="8" t="inlineStr"/>
-      <c r="I23" s="8" t="inlineStr"/>
-      <c r="J23" s="8" t="inlineStr"/>
-      <c r="K23" s="8" t="inlineStr"/>
-      <c r="L23" s="8" t="inlineStr"/>
-      <c r="M23" s="8" t="inlineStr"/>
-      <c r="N23" s="8" t="inlineStr"/>
-      <c r="O23" s="8" t="inlineStr"/>
-      <c r="P23" s="8" t="inlineStr"/>
-      <c r="Q23" s="8" t="inlineStr"/>
-      <c r="R23" s="8" t="inlineStr"/>
-      <c r="S23" s="8" t="inlineStr"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>ind_steel_blafu_0</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>PRC_RESID</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="n">
+        <v>31.462</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>27.85267695</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>22.28219805</v>
+      </c>
+      <c r="M23" s="7" t="n">
+        <v>16.7116485375</v>
+      </c>
+      <c r="N23" s="7" t="n">
+        <v>11.141099025</v>
+      </c>
+      <c r="O23" s="7" t="n">
+        <v>5.5705495125</v>
+      </c>
+      <c r="P23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>ind_steel_blafu_1</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr"/>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>iip_coke</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="n"/>
-      <c r="G24" s="8" t="inlineStr"/>
-      <c r="H24" s="8" t="inlineStr"/>
-      <c r="I24" s="8" t="inlineStr"/>
-      <c r="J24" s="8" t="inlineStr"/>
-      <c r="K24" s="8" t="inlineStr"/>
-      <c r="L24" s="8" t="inlineStr"/>
-      <c r="M24" s="8" t="inlineStr"/>
-      <c r="N24" s="8" t="inlineStr"/>
-      <c r="O24" s="8" t="inlineStr"/>
-      <c r="P24" s="8" t="inlineStr"/>
-      <c r="Q24" s="8" t="inlineStr"/>
-      <c r="R24" s="8" t="inlineStr"/>
-      <c r="S24" s="8" t="inlineStr"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>ind_steel_blafu_0</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr"/>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>NCAP_BND</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr"/>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="8" t="inlineStr">
@@ -1429,7 +1693,7 @@
           <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
-      <c r="F25" s="8" t="n"/>
+      <c r="F25" s="8" t="inlineStr"/>
       <c r="G25" s="8" t="inlineStr"/>
       <c r="H25" s="8" t="inlineStr"/>
       <c r="I25" s="8" t="inlineStr"/>
@@ -1461,7 +1725,7 @@
           <t>iip_steel_sinter</t>
         </is>
       </c>
-      <c r="F26" s="8" t="n"/>
+      <c r="F26" s="8" t="inlineStr"/>
       <c r="G26" s="8" t="inlineStr"/>
       <c r="H26" s="8" t="inlineStr"/>
       <c r="I26" s="8" t="inlineStr"/>
@@ -1493,7 +1757,7 @@
           <t>iip_steel_oxygen</t>
         </is>
       </c>
-      <c r="F27" s="8" t="n"/>
+      <c r="F27" s="8" t="inlineStr"/>
       <c r="G27" s="8" t="inlineStr"/>
       <c r="H27" s="8" t="inlineStr"/>
       <c r="I27" s="8" t="inlineStr"/>
@@ -1520,7 +1784,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E28" s="8" t="n"/>
+      <c r="E28" s="8" t="inlineStr"/>
       <c r="F28" s="8" t="inlineStr">
         <is>
           <t>iip_steel_raw_iron</t>
@@ -1552,7 +1816,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E29" s="8" t="n"/>
+      <c r="E29" s="8" t="inlineStr"/>
       <c r="F29" s="8" t="inlineStr">
         <is>
           <t>iip_steel_blafu_slag</t>
@@ -1584,7 +1848,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E30" s="8" t="n"/>
+      <c r="E30" s="8" t="inlineStr"/>
       <c r="F30" s="8" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -1616,7 +1880,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E31" s="8" t="n"/>
+      <c r="E31" s="8" t="inlineStr"/>
       <c r="F31" s="8" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -1648,7 +1912,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E32" s="8" t="n"/>
+      <c r="E32" s="8" t="inlineStr"/>
       <c r="F32" s="8" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -1680,8 +1944,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E33" s="8" t="n"/>
-      <c r="F33" s="8" t="n"/>
+      <c r="E33" s="8" t="inlineStr"/>
+      <c r="F33" s="8" t="inlineStr"/>
       <c r="G33" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -1717,7 +1981,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F34" s="8" t="n"/>
+      <c r="F34" s="8" t="inlineStr"/>
       <c r="G34" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -1753,7 +2017,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F35" s="8" t="n"/>
+      <c r="F35" s="8" t="inlineStr"/>
       <c r="G35" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -1789,7 +2053,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F36" s="7" t="n"/>
+      <c r="F36" s="7" t="inlineStr"/>
       <c r="G36" s="7" t="inlineStr"/>
       <c r="H36" s="7" t="inlineStr"/>
       <c r="I36" s="7" t="inlineStr"/>
@@ -1821,7 +2085,7 @@
           <t>pri_coal</t>
         </is>
       </c>
-      <c r="F37" s="7" t="n"/>
+      <c r="F37" s="7" t="inlineStr"/>
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" s="7" t="inlineStr"/>
       <c r="I37" s="7" t="inlineStr"/>
@@ -1853,7 +2117,7 @@
           <t>iip_coke</t>
         </is>
       </c>
-      <c r="F38" s="7" t="n"/>
+      <c r="F38" s="7" t="inlineStr"/>
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" s="7" t="inlineStr"/>
       <c r="I38" s="7" t="inlineStr"/>
@@ -1885,7 +2149,7 @@
           <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
-      <c r="F39" s="7" t="n"/>
+      <c r="F39" s="7" t="inlineStr"/>
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" s="7" t="inlineStr"/>
       <c r="I39" s="7" t="inlineStr"/>
@@ -1917,7 +2181,7 @@
           <t>iip_steel_sinter</t>
         </is>
       </c>
-      <c r="F40" s="7" t="n"/>
+      <c r="F40" s="7" t="inlineStr"/>
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" s="7" t="inlineStr"/>
       <c r="I40" s="7" t="inlineStr"/>
@@ -1949,7 +2213,7 @@
           <t>iip_steel_oxygen</t>
         </is>
       </c>
-      <c r="F41" s="7" t="n"/>
+      <c r="F41" s="7" t="inlineStr"/>
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" s="7" t="inlineStr"/>
       <c r="I41" s="7" t="inlineStr"/>
@@ -1976,7 +2240,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E42" s="7" t="n"/>
+      <c r="E42" s="7" t="inlineStr"/>
       <c r="F42" s="7" t="inlineStr">
         <is>
           <t>iip_steel_raw_iron</t>
@@ -2008,7 +2272,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E43" s="7" t="n"/>
+      <c r="E43" s="7" t="inlineStr"/>
       <c r="F43" s="7" t="inlineStr">
         <is>
           <t>iip_steel_blafu_slag</t>
@@ -2040,7 +2304,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E44" s="7" t="n"/>
+      <c r="E44" s="7" t="inlineStr"/>
       <c r="F44" s="7" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -2072,7 +2336,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E45" s="7" t="n"/>
+      <c r="E45" s="7" t="inlineStr"/>
       <c r="F45" s="7" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -2104,7 +2368,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E46" s="7" t="n"/>
+      <c r="E46" s="7" t="inlineStr"/>
       <c r="F46" s="7" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -2136,8 +2400,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="7" t="n"/>
+      <c r="E47" s="7" t="inlineStr"/>
+      <c r="F47" s="7" t="inlineStr"/>
       <c r="G47" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2173,7 +2437,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F48" s="7" t="n"/>
+      <c r="F48" s="7" t="inlineStr"/>
       <c r="G48" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2209,7 +2473,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F49" s="7" t="n"/>
+      <c r="F49" s="7" t="inlineStr"/>
       <c r="G49" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2245,7 +2509,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F50" s="8" t="n"/>
+      <c r="F50" s="8" t="inlineStr"/>
       <c r="G50" s="8" t="inlineStr"/>
       <c r="H50" s="8" t="inlineStr"/>
       <c r="I50" s="8" t="inlineStr"/>
@@ -2272,7 +2536,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E51" s="8" t="n"/>
+      <c r="E51" s="8" t="inlineStr"/>
       <c r="F51" s="8" t="inlineStr">
         <is>
           <t>iip_heat_proc</t>
@@ -2309,7 +2573,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F52" s="7" t="n"/>
+      <c r="F52" s="7" t="inlineStr"/>
       <c r="G52" s="7" t="inlineStr"/>
       <c r="H52" s="7" t="inlineStr"/>
       <c r="I52" s="7" t="inlineStr"/>
@@ -2341,7 +2605,7 @@
           <t>iip_heat_proc</t>
         </is>
       </c>
-      <c r="F53" s="7" t="n"/>
+      <c r="F53" s="7" t="inlineStr"/>
       <c r="G53" s="7" t="inlineStr"/>
       <c r="H53" s="7" t="inlineStr"/>
       <c r="I53" s="7" t="inlineStr"/>
@@ -2373,7 +2637,7 @@
           <t>iip_steel_crudesteel</t>
         </is>
       </c>
-      <c r="F54" s="7" t="n"/>
+      <c r="F54" s="7" t="inlineStr"/>
       <c r="G54" s="7" t="inlineStr"/>
       <c r="H54" s="7" t="inlineStr"/>
       <c r="I54" s="7" t="inlineStr"/>
@@ -2400,7 +2664,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E55" s="7" t="n"/>
+      <c r="E55" s="7" t="inlineStr"/>
       <c r="F55" s="7" t="inlineStr">
         <is>
           <t>exo_steel</t>
@@ -2432,7 +2696,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E56" s="7" t="n"/>
+      <c r="E56" s="7" t="inlineStr"/>
       <c r="F56" s="7" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -2464,7 +2728,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E57" s="7" t="n"/>
+      <c r="E57" s="7" t="inlineStr"/>
       <c r="F57" s="7" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -2496,7 +2760,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E58" s="7" t="n"/>
+      <c r="E58" s="7" t="inlineStr"/>
       <c r="F58" s="7" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -2528,8 +2792,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E59" s="7" t="n"/>
-      <c r="F59" s="7" t="n"/>
+      <c r="E59" s="7" t="inlineStr"/>
+      <c r="F59" s="7" t="inlineStr"/>
       <c r="G59" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2565,7 +2829,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F60" s="7" t="n"/>
+      <c r="F60" s="7" t="inlineStr"/>
       <c r="G60" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2601,7 +2865,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F61" s="7" t="n"/>
+      <c r="F61" s="7" t="inlineStr"/>
       <c r="G61" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2637,7 +2901,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F62" s="8" t="n"/>
+      <c r="F62" s="8" t="inlineStr"/>
       <c r="G62" s="8" t="inlineStr"/>
       <c r="H62" s="8" t="inlineStr"/>
       <c r="I62" s="8" t="inlineStr"/>
@@ -2669,7 +2933,7 @@
           <t>iip_heat_proc</t>
         </is>
       </c>
-      <c r="F63" s="8" t="n"/>
+      <c r="F63" s="8" t="inlineStr"/>
       <c r="G63" s="8" t="inlineStr"/>
       <c r="H63" s="8" t="inlineStr"/>
       <c r="I63" s="8" t="inlineStr"/>
@@ -2701,7 +2965,7 @@
           <t>iip_steel_crudesteel</t>
         </is>
       </c>
-      <c r="F64" s="8" t="n"/>
+      <c r="F64" s="8" t="inlineStr"/>
       <c r="G64" s="8" t="inlineStr"/>
       <c r="H64" s="8" t="inlineStr"/>
       <c r="I64" s="8" t="inlineStr"/>
@@ -2728,7 +2992,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E65" s="8" t="n"/>
+      <c r="E65" s="8" t="inlineStr"/>
       <c r="F65" s="8" t="inlineStr">
         <is>
           <t>exo_steel</t>
@@ -2760,7 +3024,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E66" s="8" t="n"/>
+      <c r="E66" s="8" t="inlineStr"/>
       <c r="F66" s="8" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -2792,7 +3056,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E67" s="8" t="n"/>
+      <c r="E67" s="8" t="inlineStr"/>
       <c r="F67" s="8" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -2824,7 +3088,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E68" s="8" t="n"/>
+      <c r="E68" s="8" t="inlineStr"/>
       <c r="F68" s="8" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -2856,8 +3120,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E69" s="8" t="n"/>
-      <c r="F69" s="8" t="n"/>
+      <c r="E69" s="8" t="inlineStr"/>
+      <c r="F69" s="8" t="inlineStr"/>
       <c r="G69" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2893,7 +3157,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F70" s="8" t="n"/>
+      <c r="F70" s="8" t="inlineStr"/>
       <c r="G70" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2929,7 +3193,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F71" s="8" t="n"/>
+      <c r="F71" s="8" t="inlineStr"/>
       <c r="G71" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -2965,7 +3229,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F72" s="7" t="n"/>
+      <c r="F72" s="7" t="inlineStr"/>
       <c r="G72" s="7" t="inlineStr"/>
       <c r="H72" s="7" t="inlineStr"/>
       <c r="I72" s="7" t="inlineStr"/>
@@ -2997,7 +3261,7 @@
           <t>iip_steel_oxygen</t>
         </is>
       </c>
-      <c r="F73" s="7" t="n"/>
+      <c r="F73" s="7" t="inlineStr"/>
       <c r="G73" s="7" t="inlineStr"/>
       <c r="H73" s="7" t="inlineStr"/>
       <c r="I73" s="7" t="inlineStr"/>
@@ -3029,7 +3293,7 @@
           <t>iip_steel_sponge_iron</t>
         </is>
       </c>
-      <c r="F74" s="7" t="n"/>
+      <c r="F74" s="7" t="inlineStr"/>
       <c r="G74" s="7" t="inlineStr"/>
       <c r="H74" s="7" t="inlineStr"/>
       <c r="I74" s="7" t="inlineStr"/>
@@ -3056,7 +3320,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E75" s="7" t="n"/>
+      <c r="E75" s="7" t="inlineStr"/>
       <c r="F75" s="7" t="inlineStr">
         <is>
           <t>iip_steel_crudesteel</t>
@@ -3088,7 +3352,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E76" s="7" t="n"/>
+      <c r="E76" s="7" t="inlineStr"/>
       <c r="F76" s="7" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -3120,7 +3384,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E77" s="7" t="n"/>
+      <c r="E77" s="7" t="inlineStr"/>
       <c r="F77" s="7" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -3152,7 +3416,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E78" s="7" t="n"/>
+      <c r="E78" s="7" t="inlineStr"/>
       <c r="F78" s="7" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -3184,8 +3448,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E79" s="7" t="n"/>
-      <c r="F79" s="7" t="n"/>
+      <c r="E79" s="7" t="inlineStr"/>
+      <c r="F79" s="7" t="inlineStr"/>
       <c r="G79" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3221,7 +3485,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F80" s="7" t="n"/>
+      <c r="F80" s="7" t="inlineStr"/>
       <c r="G80" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3257,7 +3521,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F81" s="7" t="n"/>
+      <c r="F81" s="7" t="inlineStr"/>
       <c r="G81" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3293,7 +3557,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F82" s="8" t="n"/>
+      <c r="F82" s="8" t="inlineStr"/>
       <c r="G82" s="8" t="inlineStr"/>
       <c r="H82" s="8" t="inlineStr"/>
       <c r="I82" s="8" t="inlineStr"/>
@@ -3325,7 +3589,7 @@
           <t>iip_steel_oxygen</t>
         </is>
       </c>
-      <c r="F83" s="8" t="n"/>
+      <c r="F83" s="8" t="inlineStr"/>
       <c r="G83" s="8" t="inlineStr"/>
       <c r="H83" s="8" t="inlineStr"/>
       <c r="I83" s="8" t="inlineStr"/>
@@ -3357,7 +3621,7 @@
           <t>iip_steel_scrap</t>
         </is>
       </c>
-      <c r="F84" s="8" t="n"/>
+      <c r="F84" s="8" t="inlineStr"/>
       <c r="G84" s="8" t="inlineStr"/>
       <c r="H84" s="8" t="inlineStr"/>
       <c r="I84" s="8" t="inlineStr"/>
@@ -3384,7 +3648,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E85" s="8" t="n"/>
+      <c r="E85" s="8" t="inlineStr"/>
       <c r="F85" s="8" t="inlineStr">
         <is>
           <t>iip_steel_crudesteel</t>
@@ -3416,7 +3680,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E86" s="8" t="n"/>
+      <c r="E86" s="8" t="inlineStr"/>
       <c r="F86" s="8" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -3448,7 +3712,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E87" s="8" t="n"/>
+      <c r="E87" s="8" t="inlineStr"/>
       <c r="F87" s="8" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -3480,7 +3744,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E88" s="8" t="n"/>
+      <c r="E88" s="8" t="inlineStr"/>
       <c r="F88" s="8" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -3512,8 +3776,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E89" s="8" t="n"/>
-      <c r="F89" s="8" t="n"/>
+      <c r="E89" s="8" t="inlineStr"/>
+      <c r="F89" s="8" t="inlineStr"/>
       <c r="G89" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3549,7 +3813,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F90" s="8" t="n"/>
+      <c r="F90" s="8" t="inlineStr"/>
       <c r="G90" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3585,7 +3849,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F91" s="8" t="n"/>
+      <c r="F91" s="8" t="inlineStr"/>
       <c r="G91" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3621,7 +3885,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F92" s="7" t="n"/>
+      <c r="F92" s="7" t="inlineStr"/>
       <c r="G92" s="7" t="inlineStr"/>
       <c r="H92" s="7" t="inlineStr"/>
       <c r="I92" s="7" t="inlineStr"/>
@@ -3653,7 +3917,7 @@
           <t>iip_steel_oxygen</t>
         </is>
       </c>
-      <c r="F93" s="7" t="n"/>
+      <c r="F93" s="7" t="inlineStr"/>
       <c r="G93" s="7" t="inlineStr"/>
       <c r="H93" s="7" t="inlineStr"/>
       <c r="I93" s="7" t="inlineStr"/>
@@ -3685,7 +3949,7 @@
           <t>iip_steel_scrap</t>
         </is>
       </c>
-      <c r="F94" s="7" t="n"/>
+      <c r="F94" s="7" t="inlineStr"/>
       <c r="G94" s="7" t="inlineStr"/>
       <c r="H94" s="7" t="inlineStr"/>
       <c r="I94" s="7" t="inlineStr"/>
@@ -3712,7 +3976,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E95" s="7" t="n"/>
+      <c r="E95" s="7" t="inlineStr"/>
       <c r="F95" s="7" t="inlineStr">
         <is>
           <t>iip_steel_crudesteel</t>
@@ -3744,7 +4008,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E96" s="7" t="n"/>
+      <c r="E96" s="7" t="inlineStr"/>
       <c r="F96" s="7" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -3776,7 +4040,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E97" s="7" t="n"/>
+      <c r="E97" s="7" t="inlineStr"/>
       <c r="F97" s="7" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -3808,7 +4072,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E98" s="7" t="n"/>
+      <c r="E98" s="7" t="inlineStr"/>
       <c r="F98" s="7" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -3840,8 +4104,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E99" s="7" t="n"/>
-      <c r="F99" s="7" t="n"/>
+      <c r="E99" s="7" t="inlineStr"/>
+      <c r="F99" s="7" t="inlineStr"/>
       <c r="G99" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3877,7 +4141,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F100" s="7" t="n"/>
+      <c r="F100" s="7" t="inlineStr"/>
       <c r="G100" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3913,7 +4177,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F101" s="7" t="n"/>
+      <c r="F101" s="7" t="inlineStr"/>
       <c r="G101" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -3949,7 +4213,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F102" s="8" t="n"/>
+      <c r="F102" s="8" t="inlineStr"/>
       <c r="G102" s="8" t="inlineStr"/>
       <c r="H102" s="8" t="inlineStr"/>
       <c r="I102" s="8" t="inlineStr"/>
@@ -3981,7 +4245,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F103" s="8" t="n"/>
+      <c r="F103" s="8" t="inlineStr"/>
       <c r="G103" s="8" t="inlineStr"/>
       <c r="H103" s="8" t="inlineStr"/>
       <c r="I103" s="8" t="inlineStr"/>
@@ -4013,7 +4277,7 @@
           <t>iip_steel_iron_ore</t>
         </is>
       </c>
-      <c r="F104" s="8" t="n"/>
+      <c r="F104" s="8" t="inlineStr"/>
       <c r="G104" s="8" t="inlineStr"/>
       <c r="H104" s="8" t="inlineStr"/>
       <c r="I104" s="8" t="inlineStr"/>
@@ -4040,7 +4304,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E105" s="8" t="n"/>
+      <c r="E105" s="8" t="inlineStr"/>
       <c r="F105" s="8" t="inlineStr">
         <is>
           <t>iip_steel_crudesteel</t>
@@ -4077,7 +4341,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F106" s="7" t="n"/>
+      <c r="F106" s="7" t="inlineStr"/>
       <c r="G106" s="7" t="inlineStr"/>
       <c r="H106" s="7" t="inlineStr"/>
       <c r="I106" s="7" t="inlineStr"/>
@@ -4109,7 +4373,7 @@
           <t>iip_steel_oxygen</t>
         </is>
       </c>
-      <c r="F107" s="7" t="n"/>
+      <c r="F107" s="7" t="inlineStr"/>
       <c r="G107" s="7" t="inlineStr"/>
       <c r="H107" s="7" t="inlineStr"/>
       <c r="I107" s="7" t="inlineStr"/>
@@ -4141,7 +4405,7 @@
           <t>iip_steel_raw_iron</t>
         </is>
       </c>
-      <c r="F108" s="7" t="n"/>
+      <c r="F108" s="7" t="inlineStr"/>
       <c r="G108" s="7" t="inlineStr"/>
       <c r="H108" s="7" t="inlineStr"/>
       <c r="I108" s="7" t="inlineStr"/>
@@ -4168,7 +4432,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E109" s="7" t="n"/>
+      <c r="E109" s="7" t="inlineStr"/>
       <c r="F109" s="7" t="inlineStr">
         <is>
           <t>iip_steel_crudesteel</t>
@@ -4200,7 +4464,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E110" s="7" t="n"/>
+      <c r="E110" s="7" t="inlineStr"/>
       <c r="F110" s="7" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -4232,7 +4496,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E111" s="7" t="n"/>
+      <c r="E111" s="7" t="inlineStr"/>
       <c r="F111" s="7" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -4264,7 +4528,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E112" s="7" t="n"/>
+      <c r="E112" s="7" t="inlineStr"/>
       <c r="F112" s="7" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -4296,8 +4560,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E113" s="7" t="n"/>
-      <c r="F113" s="7" t="n"/>
+      <c r="E113" s="7" t="inlineStr"/>
+      <c r="F113" s="7" t="inlineStr"/>
       <c r="G113" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -4333,7 +4597,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F114" s="7" t="n"/>
+      <c r="F114" s="7" t="inlineStr"/>
       <c r="G114" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -4369,7 +4633,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F115" s="7" t="n"/>
+      <c r="F115" s="7" t="inlineStr"/>
       <c r="G115" s="7" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -4405,7 +4669,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F116" s="8" t="n"/>
+      <c r="F116" s="8" t="inlineStr"/>
       <c r="G116" s="8" t="inlineStr"/>
       <c r="H116" s="8" t="inlineStr"/>
       <c r="I116" s="8" t="inlineStr"/>
@@ -4437,7 +4701,7 @@
           <t>iip_steel_oxygen</t>
         </is>
       </c>
-      <c r="F117" s="8" t="n"/>
+      <c r="F117" s="8" t="inlineStr"/>
       <c r="G117" s="8" t="inlineStr"/>
       <c r="H117" s="8" t="inlineStr"/>
       <c r="I117" s="8" t="inlineStr"/>
@@ -4469,7 +4733,7 @@
           <t>iip_steel_raw_iron</t>
         </is>
       </c>
-      <c r="F118" s="8" t="n"/>
+      <c r="F118" s="8" t="inlineStr"/>
       <c r="G118" s="8" t="inlineStr"/>
       <c r="H118" s="8" t="inlineStr"/>
       <c r="I118" s="8" t="inlineStr"/>
@@ -4496,7 +4760,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E119" s="8" t="n"/>
+      <c r="E119" s="8" t="inlineStr"/>
       <c r="F119" s="8" t="inlineStr">
         <is>
           <t>iip_steel_crudesteel</t>
@@ -4528,7 +4792,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E120" s="8" t="n"/>
+      <c r="E120" s="8" t="inlineStr"/>
       <c r="F120" s="8" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -4560,7 +4824,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E121" s="8" t="n"/>
+      <c r="E121" s="8" t="inlineStr"/>
       <c r="F121" s="8" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -4592,7 +4856,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E122" s="8" t="n"/>
+      <c r="E122" s="8" t="inlineStr"/>
       <c r="F122" s="8" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -4624,8 +4888,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E123" s="8" t="n"/>
-      <c r="F123" s="8" t="n"/>
+      <c r="E123" s="8" t="inlineStr"/>
+      <c r="F123" s="8" t="inlineStr"/>
       <c r="G123" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -4661,7 +4925,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F124" s="8" t="n"/>
+      <c r="F124" s="8" t="inlineStr"/>
       <c r="G124" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -4697,7 +4961,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F125" s="8" t="n"/>
+      <c r="F125" s="8" t="inlineStr"/>
       <c r="G125" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -4733,7 +4997,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F126" s="7" t="n"/>
+      <c r="F126" s="7" t="inlineStr"/>
       <c r="G126" s="7" t="inlineStr"/>
       <c r="H126" s="7" t="inlineStr"/>
       <c r="I126" s="7" t="inlineStr"/>
@@ -4765,7 +5029,7 @@
           <t>iip_coke</t>
         </is>
       </c>
-      <c r="F127" s="7" t="n"/>
+      <c r="F127" s="7" t="inlineStr"/>
       <c r="G127" s="7" t="inlineStr"/>
       <c r="H127" s="7" t="inlineStr"/>
       <c r="I127" s="7" t="inlineStr"/>
@@ -4797,7 +5061,7 @@
           <t>iip_steel_iron_ore</t>
         </is>
       </c>
-      <c r="F128" s="7" t="n"/>
+      <c r="F128" s="7" t="inlineStr"/>
       <c r="G128" s="7" t="inlineStr"/>
       <c r="H128" s="7" t="inlineStr"/>
       <c r="I128" s="7" t="inlineStr"/>
@@ -4824,7 +5088,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E129" s="7" t="n"/>
+      <c r="E129" s="7" t="inlineStr"/>
       <c r="F129" s="7" t="inlineStr">
         <is>
           <t>iip_steel_iron_pellets</t>
@@ -4856,7 +5120,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E130" s="7" t="n"/>
+      <c r="E130" s="7" t="inlineStr"/>
       <c r="F130" s="7" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -4888,7 +5152,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E131" s="7" t="n"/>
+      <c r="E131" s="7" t="inlineStr"/>
       <c r="F131" s="7" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -4920,7 +5184,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E132" s="7" t="n"/>
+      <c r="E132" s="7" t="inlineStr"/>
       <c r="F132" s="7" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -4957,7 +5221,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F133" s="8" t="n"/>
+      <c r="F133" s="8" t="inlineStr"/>
       <c r="G133" s="8" t="inlineStr"/>
       <c r="H133" s="8" t="inlineStr"/>
       <c r="I133" s="8" t="inlineStr"/>
@@ -4989,7 +5253,7 @@
           <t>iip_steel_iron_ore</t>
         </is>
       </c>
-      <c r="F134" s="8" t="n"/>
+      <c r="F134" s="8" t="inlineStr"/>
       <c r="G134" s="8" t="inlineStr"/>
       <c r="H134" s="8" t="inlineStr"/>
       <c r="I134" s="8" t="inlineStr"/>
@@ -5016,7 +5280,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E135" s="8" t="n"/>
+      <c r="E135" s="8" t="inlineStr"/>
       <c r="F135" s="8" t="inlineStr">
         <is>
           <t>iip_steel_sinter</t>
@@ -5048,7 +5312,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E136" s="8" t="n"/>
+      <c r="E136" s="8" t="inlineStr"/>
       <c r="F136" s="8" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -5080,7 +5344,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E137" s="8" t="n"/>
+      <c r="E137" s="8" t="inlineStr"/>
       <c r="F137" s="8" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -5112,7 +5376,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E138" s="8" t="n"/>
+      <c r="E138" s="8" t="inlineStr"/>
       <c r="F138" s="8" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -5144,8 +5408,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E139" s="8" t="n"/>
-      <c r="F139" s="8" t="n"/>
+      <c r="E139" s="8" t="inlineStr"/>
+      <c r="F139" s="8" t="inlineStr"/>
       <c r="G139" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen_coal</t>
@@ -5181,7 +5445,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F140" s="8" t="n"/>
+      <c r="F140" s="8" t="inlineStr"/>
       <c r="G140" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen_coal</t>
@@ -5217,7 +5481,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F141" s="8" t="n"/>
+      <c r="F141" s="8" t="inlineStr"/>
       <c r="G141" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen_coal</t>
@@ -5253,7 +5517,7 @@
           <t>pri_coal</t>
         </is>
       </c>
-      <c r="F142" s="8" t="n"/>
+      <c r="F142" s="8" t="inlineStr"/>
       <c r="G142" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen_coal</t>
@@ -5289,7 +5553,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F143" s="7" t="n"/>
+      <c r="F143" s="7" t="inlineStr"/>
       <c r="G143" s="7" t="inlineStr"/>
       <c r="H143" s="7" t="inlineStr"/>
       <c r="I143" s="7" t="inlineStr"/>
@@ -5321,7 +5585,7 @@
           <t>pri_coal</t>
         </is>
       </c>
-      <c r="F144" s="7" t="n"/>
+      <c r="F144" s="7" t="inlineStr"/>
       <c r="G144" s="7" t="inlineStr"/>
       <c r="H144" s="7" t="inlineStr"/>
       <c r="I144" s="7" t="inlineStr"/>
@@ -5353,7 +5617,7 @@
           <t>iip_steel_iron_ore</t>
         </is>
       </c>
-      <c r="F145" s="7" t="n"/>
+      <c r="F145" s="7" t="inlineStr"/>
       <c r="G145" s="7" t="inlineStr"/>
       <c r="H145" s="7" t="inlineStr"/>
       <c r="I145" s="7" t="inlineStr"/>
@@ -5380,7 +5644,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E146" s="7" t="n"/>
+      <c r="E146" s="7" t="inlineStr"/>
       <c r="F146" s="7" t="inlineStr">
         <is>
           <t>iip_steel_sinter</t>
@@ -5412,7 +5676,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E147" s="7" t="n"/>
+      <c r="E147" s="7" t="inlineStr"/>
       <c r="F147" s="7" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -5444,7 +5708,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E148" s="7" t="n"/>
+      <c r="E148" s="7" t="inlineStr"/>
       <c r="F148" s="7" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -5476,7 +5740,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E149" s="7" t="n"/>
+      <c r="E149" s="7" t="inlineStr"/>
       <c r="F149" s="7" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -5513,7 +5777,7 @@
           <t>sec_elec_ind</t>
         </is>
       </c>
-      <c r="F150" s="8" t="n"/>
+      <c r="F150" s="8" t="inlineStr"/>
       <c r="G150" s="8" t="inlineStr"/>
       <c r="H150" s="8" t="inlineStr"/>
       <c r="I150" s="8" t="inlineStr"/>
@@ -5545,7 +5809,7 @@
           <t>iip_steel_iron_ore</t>
         </is>
       </c>
-      <c r="F151" s="8" t="n"/>
+      <c r="F151" s="8" t="inlineStr"/>
       <c r="G151" s="8" t="inlineStr"/>
       <c r="H151" s="8" t="inlineStr"/>
       <c r="I151" s="8" t="inlineStr"/>
@@ -5577,7 +5841,7 @@
           <t>iip_steel_iron_pellets</t>
         </is>
       </c>
-      <c r="F152" s="8" t="n"/>
+      <c r="F152" s="8" t="inlineStr"/>
       <c r="G152" s="8" t="inlineStr"/>
       <c r="H152" s="8" t="inlineStr"/>
       <c r="I152" s="8" t="inlineStr"/>
@@ -5604,7 +5868,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E153" s="8" t="n"/>
+      <c r="E153" s="8" t="inlineStr"/>
       <c r="F153" s="8" t="inlineStr">
         <is>
           <t>iip_steel_sponge_iron</t>
@@ -5636,7 +5900,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E154" s="8" t="n"/>
+      <c r="E154" s="8" t="inlineStr"/>
       <c r="F154" s="8" t="inlineStr">
         <is>
           <t>emi_CO2_f_ind</t>
@@ -5668,7 +5932,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E155" s="8" t="n"/>
+      <c r="E155" s="8" t="inlineStr"/>
       <c r="F155" s="8" t="inlineStr">
         <is>
           <t>emi_CH4_f_ind</t>
@@ -5700,7 +5964,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E156" s="8" t="n"/>
+      <c r="E156" s="8" t="inlineStr"/>
       <c r="F156" s="8" t="inlineStr">
         <is>
           <t>emi_N2O_f_ind</t>
@@ -5732,8 +5996,8 @@
           <t>ACT_EFF</t>
         </is>
       </c>
-      <c r="E157" s="8" t="n"/>
-      <c r="F157" s="8" t="n"/>
+      <c r="E157" s="8" t="inlineStr"/>
+      <c r="F157" s="8" t="inlineStr"/>
       <c r="G157" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -5769,7 +6033,7 @@
           <t>sec_methane</t>
         </is>
       </c>
-      <c r="F158" s="8" t="n"/>
+      <c r="F158" s="8" t="inlineStr"/>
       <c r="G158" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -5805,7 +6069,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F159" s="8" t="n"/>
+      <c r="F159" s="8" t="inlineStr"/>
       <c r="G159" s="8" t="inlineStr">
         <is>
           <t>cg_methane_hydrogen</t>
@@ -5841,7 +6105,7 @@
           <t>sec_biogas</t>
         </is>
       </c>
-      <c r="F160" s="7" t="n"/>
+      <c r="F160" s="7" t="inlineStr"/>
       <c r="G160" s="7" t="inlineStr"/>
       <c r="H160" s="7" t="inlineStr"/>
       <c r="I160" s="7" t="inlineStr"/>
@@ -5868,7 +6132,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E161" s="7" t="n"/>
+      <c r="E161" s="7" t="inlineStr"/>
       <c r="F161" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -5905,7 +6169,7 @@
           <t>sec_heating_oil</t>
         </is>
       </c>
-      <c r="F162" s="8" t="n"/>
+      <c r="F162" s="8" t="inlineStr"/>
       <c r="G162" s="8" t="inlineStr"/>
       <c r="H162" s="8" t="inlineStr"/>
       <c r="I162" s="8" t="inlineStr"/>
@@ -5932,7 +6196,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E163" s="8" t="n"/>
+      <c r="E163" s="8" t="inlineStr"/>
       <c r="F163" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -5964,7 +6228,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E164" s="8" t="n"/>
+      <c r="E164" s="8" t="inlineStr"/>
       <c r="F164" s="8" t="inlineStr">
         <is>
           <t>CO2_f_pow</t>
@@ -6001,7 +6265,7 @@
           <t>sec_H2</t>
         </is>
       </c>
-      <c r="F165" s="7" t="n"/>
+      <c r="F165" s="7" t="inlineStr"/>
       <c r="G165" s="7" t="inlineStr"/>
       <c r="H165" s="7" t="inlineStr"/>
       <c r="I165" s="7" t="inlineStr"/>
@@ -6028,7 +6292,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E166" s="7" t="n"/>
+      <c r="E166" s="7" t="inlineStr"/>
       <c r="F166" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6065,7 +6329,7 @@
           <t>pri_natural_gas</t>
         </is>
       </c>
-      <c r="F167" s="8" t="n"/>
+      <c r="F167" s="8" t="inlineStr"/>
       <c r="G167" s="8" t="inlineStr"/>
       <c r="H167" s="8" t="inlineStr"/>
       <c r="I167" s="8" t="inlineStr"/>
@@ -6092,7 +6356,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E168" s="8" t="n"/>
+      <c r="E168" s="8" t="inlineStr"/>
       <c r="F168" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6124,7 +6388,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E169" s="8" t="n"/>
+      <c r="E169" s="8" t="inlineStr"/>
       <c r="F169" s="8" t="inlineStr">
         <is>
           <t>CO2_f_pow</t>
@@ -6161,7 +6425,7 @@
           <t>sec_natural_gas_syn</t>
         </is>
       </c>
-      <c r="F170" s="7" t="n"/>
+      <c r="F170" s="7" t="inlineStr"/>
       <c r="G170" s="7" t="inlineStr"/>
       <c r="H170" s="7" t="inlineStr"/>
       <c r="I170" s="7" t="inlineStr"/>
@@ -6188,7 +6452,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E171" s="7" t="n"/>
+      <c r="E171" s="7" t="inlineStr"/>
       <c r="F171" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6220,7 +6484,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E172" s="7" t="n"/>
+      <c r="E172" s="7" t="inlineStr"/>
       <c r="F172" s="7" t="inlineStr">
         <is>
           <t>CO2_f_pow</t>
@@ -6257,7 +6521,7 @@
           <t>pri_biomass</t>
         </is>
       </c>
-      <c r="F173" s="8" t="n"/>
+      <c r="F173" s="8" t="inlineStr"/>
       <c r="G173" s="8" t="inlineStr"/>
       <c r="H173" s="8" t="inlineStr"/>
       <c r="I173" s="8" t="inlineStr"/>
@@ -6284,7 +6548,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E174" s="8" t="n"/>
+      <c r="E174" s="8" t="inlineStr"/>
       <c r="F174" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6321,7 +6585,7 @@
           <t>pri_coal</t>
         </is>
       </c>
-      <c r="F175" s="7" t="n"/>
+      <c r="F175" s="7" t="inlineStr"/>
       <c r="G175" s="7" t="inlineStr"/>
       <c r="H175" s="7" t="inlineStr"/>
       <c r="I175" s="7" t="inlineStr"/>
@@ -6348,7 +6612,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E176" s="7" t="n"/>
+      <c r="E176" s="7" t="inlineStr"/>
       <c r="F176" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6380,7 +6644,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E177" s="7" t="n"/>
+      <c r="E177" s="7" t="inlineStr"/>
       <c r="F177" s="7" t="inlineStr">
         <is>
           <t>CO2_f_pow</t>
@@ -6417,7 +6681,7 @@
           <t>sec_heating_oil</t>
         </is>
       </c>
-      <c r="F178" s="8" t="n"/>
+      <c r="F178" s="8" t="inlineStr"/>
       <c r="G178" s="8" t="inlineStr"/>
       <c r="H178" s="8" t="inlineStr"/>
       <c r="I178" s="8" t="inlineStr"/>
@@ -6444,7 +6708,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E179" s="8" t="n"/>
+      <c r="E179" s="8" t="inlineStr"/>
       <c r="F179" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6476,7 +6740,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E180" s="8" t="n"/>
+      <c r="E180" s="8" t="inlineStr"/>
       <c r="F180" s="8" t="inlineStr">
         <is>
           <t>CO2_f_pow</t>
@@ -6513,7 +6777,7 @@
           <t>pri_natural_gas</t>
         </is>
       </c>
-      <c r="F181" s="7" t="n"/>
+      <c r="F181" s="7" t="inlineStr"/>
       <c r="G181" s="7" t="inlineStr"/>
       <c r="H181" s="7" t="inlineStr"/>
       <c r="I181" s="7" t="inlineStr"/>
@@ -6540,7 +6804,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E182" s="7" t="n"/>
+      <c r="E182" s="7" t="inlineStr"/>
       <c r="F182" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6572,7 +6836,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E183" s="7" t="n"/>
+      <c r="E183" s="7" t="inlineStr"/>
       <c r="F183" s="7" t="inlineStr">
         <is>
           <t>CO2_f_pow</t>
@@ -6609,7 +6873,7 @@
           <t>pri_waste</t>
         </is>
       </c>
-      <c r="F184" s="8" t="n"/>
+      <c r="F184" s="8" t="inlineStr"/>
       <c r="G184" s="8" t="inlineStr"/>
       <c r="H184" s="8" t="inlineStr"/>
       <c r="I184" s="8" t="inlineStr"/>
@@ -6636,7 +6900,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E185" s="8" t="n"/>
+      <c r="E185" s="8" t="inlineStr"/>
       <c r="F185" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6668,7 +6932,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E186" s="8" t="n"/>
+      <c r="E186" s="8" t="inlineStr"/>
       <c r="F186" s="8" t="inlineStr">
         <is>
           <t>CO2_f_pow</t>
@@ -6705,7 +6969,7 @@
           <t>pri_geoth_heat</t>
         </is>
       </c>
-      <c r="F187" s="7" t="n"/>
+      <c r="F187" s="7" t="inlineStr"/>
       <c r="G187" s="7" t="inlineStr"/>
       <c r="H187" s="7" t="inlineStr"/>
       <c r="I187" s="7" t="inlineStr"/>
@@ -6732,7 +6996,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E188" s="7" t="n"/>
+      <c r="E188" s="7" t="inlineStr"/>
       <c r="F188" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6769,7 +7033,7 @@
           <t>pri_geoth_heat</t>
         </is>
       </c>
-      <c r="F189" s="8" t="n"/>
+      <c r="F189" s="8" t="inlineStr"/>
       <c r="G189" s="8" t="inlineStr"/>
       <c r="H189" s="8" t="inlineStr"/>
       <c r="I189" s="8" t="inlineStr"/>
@@ -6796,7 +7060,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E190" s="8" t="n"/>
+      <c r="E190" s="8" t="inlineStr"/>
       <c r="F190" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6828,7 +7092,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E191" s="8" t="n"/>
+      <c r="E191" s="8" t="inlineStr"/>
       <c r="F191" s="8" t="inlineStr">
         <is>
           <t>sec_heat_low</t>
@@ -6865,7 +7129,7 @@
           <t>pri_geoth_heat</t>
         </is>
       </c>
-      <c r="F192" s="7" t="n"/>
+      <c r="F192" s="7" t="inlineStr"/>
       <c r="G192" s="7" t="inlineStr"/>
       <c r="H192" s="7" t="inlineStr"/>
       <c r="I192" s="7" t="inlineStr"/>
@@ -6892,7 +7156,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E193" s="7" t="n"/>
+      <c r="E193" s="7" t="inlineStr"/>
       <c r="F193" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6929,7 +7193,7 @@
           <t>pri_geoth_heat</t>
         </is>
       </c>
-      <c r="F194" s="8" t="n"/>
+      <c r="F194" s="8" t="inlineStr"/>
       <c r="G194" s="8" t="inlineStr"/>
       <c r="H194" s="8" t="inlineStr"/>
       <c r="I194" s="8" t="inlineStr"/>
@@ -6956,7 +7220,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E195" s="8" t="n"/>
+      <c r="E195" s="8" t="inlineStr"/>
       <c r="F195" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -6988,7 +7252,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E196" s="8" t="n"/>
+      <c r="E196" s="8" t="inlineStr"/>
       <c r="F196" s="8" t="inlineStr">
         <is>
           <t>sec_heat_low</t>
@@ -7025,7 +7289,7 @@
           <t>pri_hydro_energy</t>
         </is>
       </c>
-      <c r="F197" s="7" t="n"/>
+      <c r="F197" s="7" t="inlineStr"/>
       <c r="G197" s="7" t="inlineStr"/>
       <c r="H197" s="7" t="inlineStr"/>
       <c r="I197" s="7" t="inlineStr"/>
@@ -7052,7 +7316,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E198" s="7" t="n"/>
+      <c r="E198" s="7" t="inlineStr"/>
       <c r="F198" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7089,7 +7353,7 @@
           <t>pri_hydro_energy</t>
         </is>
       </c>
-      <c r="F199" s="8" t="n"/>
+      <c r="F199" s="8" t="inlineStr"/>
       <c r="G199" s="8" t="inlineStr"/>
       <c r="H199" s="8" t="inlineStr"/>
       <c r="I199" s="8" t="inlineStr"/>
@@ -7116,7 +7380,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E200" s="8" t="n"/>
+      <c r="E200" s="8" t="inlineStr"/>
       <c r="F200" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7153,7 +7417,7 @@
           <t>pri_hydro_energy</t>
         </is>
       </c>
-      <c r="F201" s="7" t="n"/>
+      <c r="F201" s="7" t="inlineStr"/>
       <c r="G201" s="7" t="inlineStr"/>
       <c r="H201" s="7" t="inlineStr"/>
       <c r="I201" s="7" t="inlineStr"/>
@@ -7180,7 +7444,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E202" s="7" t="n"/>
+      <c r="E202" s="7" t="inlineStr"/>
       <c r="F202" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7217,7 +7481,7 @@
           <t>pri_uran</t>
         </is>
       </c>
-      <c r="F203" s="8" t="n"/>
+      <c r="F203" s="8" t="inlineStr"/>
       <c r="G203" s="8" t="inlineStr"/>
       <c r="H203" s="8" t="inlineStr"/>
       <c r="I203" s="8" t="inlineStr"/>
@@ -7244,7 +7508,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E204" s="8" t="n"/>
+      <c r="E204" s="8" t="inlineStr"/>
       <c r="F204" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7281,7 +7545,7 @@
           <t>pri_deuterium</t>
         </is>
       </c>
-      <c r="F205" s="7" t="n"/>
+      <c r="F205" s="7" t="inlineStr"/>
       <c r="G205" s="7" t="inlineStr"/>
       <c r="H205" s="7" t="inlineStr"/>
       <c r="I205" s="7" t="inlineStr"/>
@@ -7308,7 +7572,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E206" s="7" t="n"/>
+      <c r="E206" s="7" t="inlineStr"/>
       <c r="F206" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7345,7 +7609,7 @@
           <t>pri_solar_radiation</t>
         </is>
       </c>
-      <c r="F207" s="8" t="n"/>
+      <c r="F207" s="8" t="inlineStr"/>
       <c r="G207" s="8" t="inlineStr"/>
       <c r="H207" s="8" t="inlineStr"/>
       <c r="I207" s="8" t="inlineStr"/>
@@ -7372,7 +7636,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E208" s="8" t="n"/>
+      <c r="E208" s="8" t="inlineStr"/>
       <c r="F208" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7409,7 +7673,7 @@
           <t>pri_solar_radiation</t>
         </is>
       </c>
-      <c r="F209" s="7" t="n"/>
+      <c r="F209" s="7" t="inlineStr"/>
       <c r="G209" s="7" t="inlineStr"/>
       <c r="H209" s="7" t="inlineStr"/>
       <c r="I209" s="7" t="inlineStr"/>
@@ -7436,7 +7700,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E210" s="7" t="n"/>
+      <c r="E210" s="7" t="inlineStr"/>
       <c r="F210" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7473,7 +7737,7 @@
           <t>pri_solar_radiation</t>
         </is>
       </c>
-      <c r="F211" s="8" t="n"/>
+      <c r="F211" s="8" t="inlineStr"/>
       <c r="G211" s="8" t="inlineStr"/>
       <c r="H211" s="8" t="inlineStr"/>
       <c r="I211" s="8" t="inlineStr"/>
@@ -7500,7 +7764,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E212" s="8" t="n"/>
+      <c r="E212" s="8" t="inlineStr"/>
       <c r="F212" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7537,7 +7801,7 @@
           <t>sec_elec</t>
         </is>
       </c>
-      <c r="F213" s="7" t="n"/>
+      <c r="F213" s="7" t="inlineStr"/>
       <c r="G213" s="7" t="inlineStr"/>
       <c r="H213" s="7" t="inlineStr"/>
       <c r="I213" s="7" t="inlineStr"/>
@@ -7564,7 +7828,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E214" s="7" t="n"/>
+      <c r="E214" s="7" t="inlineStr"/>
       <c r="F214" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7601,7 +7865,7 @@
           <t>sec_elec</t>
         </is>
       </c>
-      <c r="F215" s="8" t="n"/>
+      <c r="F215" s="8" t="inlineStr"/>
       <c r="G215" s="8" t="inlineStr"/>
       <c r="H215" s="8" t="inlineStr"/>
       <c r="I215" s="8" t="inlineStr"/>
@@ -7628,7 +7892,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E216" s="8" t="n"/>
+      <c r="E216" s="8" t="inlineStr"/>
       <c r="F216" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7665,7 +7929,7 @@
           <t>sec_elec</t>
         </is>
       </c>
-      <c r="F217" s="7" t="n"/>
+      <c r="F217" s="7" t="inlineStr"/>
       <c r="G217" s="7" t="inlineStr"/>
       <c r="H217" s="7" t="inlineStr"/>
       <c r="I217" s="7" t="inlineStr"/>
@@ -7692,7 +7956,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E218" s="7" t="n"/>
+      <c r="E218" s="7" t="inlineStr"/>
       <c r="F218" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7729,7 +7993,7 @@
           <t>sec_elec</t>
         </is>
       </c>
-      <c r="F219" s="8" t="n"/>
+      <c r="F219" s="8" t="inlineStr"/>
       <c r="G219" s="8" t="inlineStr"/>
       <c r="H219" s="8" t="inlineStr"/>
       <c r="I219" s="8" t="inlineStr"/>
@@ -7756,7 +8020,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E220" s="8" t="n"/>
+      <c r="E220" s="8" t="inlineStr"/>
       <c r="F220" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7793,7 +8057,7 @@
           <t>sec_elec</t>
         </is>
       </c>
-      <c r="F221" s="7" t="n"/>
+      <c r="F221" s="7" t="inlineStr"/>
       <c r="G221" s="7" t="inlineStr"/>
       <c r="H221" s="7" t="inlineStr"/>
       <c r="I221" s="7" t="inlineStr"/>
@@ -7820,7 +8084,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E222" s="7" t="n"/>
+      <c r="E222" s="7" t="inlineStr"/>
       <c r="F222" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7857,7 +8121,7 @@
           <t>pri_wind_energy_off</t>
         </is>
       </c>
-      <c r="F223" s="8" t="n"/>
+      <c r="F223" s="8" t="inlineStr"/>
       <c r="G223" s="8" t="inlineStr"/>
       <c r="H223" s="8" t="inlineStr"/>
       <c r="I223" s="8" t="inlineStr"/>
@@ -7884,7 +8148,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E224" s="8" t="n"/>
+      <c r="E224" s="8" t="inlineStr"/>
       <c r="F224" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7921,7 +8185,7 @@
           <t>pri_wind_energy_off</t>
         </is>
       </c>
-      <c r="F225" s="7" t="n"/>
+      <c r="F225" s="7" t="inlineStr"/>
       <c r="G225" s="7" t="inlineStr"/>
       <c r="H225" s="7" t="inlineStr"/>
       <c r="I225" s="7" t="inlineStr"/>
@@ -7948,7 +8212,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E226" s="7" t="n"/>
+      <c r="E226" s="7" t="inlineStr"/>
       <c r="F226" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -7985,7 +8249,7 @@
           <t>pri_wind_energy_on</t>
         </is>
       </c>
-      <c r="F227" s="8" t="n"/>
+      <c r="F227" s="8" t="inlineStr"/>
       <c r="G227" s="8" t="inlineStr"/>
       <c r="H227" s="8" t="inlineStr"/>
       <c r="I227" s="8" t="inlineStr"/>
@@ -8012,7 +8276,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E228" s="8" t="n"/>
+      <c r="E228" s="8" t="inlineStr"/>
       <c r="F228" s="8" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -8049,7 +8313,7 @@
           <t>sec_H2</t>
         </is>
       </c>
-      <c r="F229" s="7" t="n"/>
+      <c r="F229" s="7" t="inlineStr"/>
       <c r="G229" s="7" t="inlineStr"/>
       <c r="H229" s="7" t="inlineStr"/>
       <c r="I229" s="7" t="inlineStr"/>
@@ -8081,7 +8345,7 @@
           <t>sec_heat_low</t>
         </is>
       </c>
-      <c r="F230" s="7" t="n"/>
+      <c r="F230" s="7" t="inlineStr"/>
       <c r="G230" s="7" t="inlineStr"/>
       <c r="H230" s="7" t="inlineStr"/>
       <c r="I230" s="7" t="inlineStr"/>
@@ -8108,7 +8372,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E231" s="7" t="n"/>
+      <c r="E231" s="7" t="inlineStr"/>
       <c r="F231" s="7" t="inlineStr">
         <is>
           <t>sec_elec</t>
@@ -10228,12 +10492,12 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>iip_steel_sinter</t>
+          <t>sec_hydrogen</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10509,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sec_elec</t>
+          <t>sec_natural_gas_syn</t>
         </is>
       </c>
     </row>
@@ -10257,19 +10521,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pri_wind_energy_on</t>
+          <t>pri_wind_energy_off</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>iip_steel_sponge_iron</t>
+          <t>exo_steel</t>
         </is>
       </c>
     </row>
@@ -10281,19 +10545,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>iip_coke</t>
+          <t>iip_heat_proc</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pri_natural_gas</t>
+          <t>iip_steel_sponge_iron</t>
         </is>
       </c>
     </row>
@@ -10305,43 +10569,43 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pri_solar_radiation</t>
+          <t>pri_deuterium</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pri_wind_energy_off</t>
+          <t>[emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>iip_steel_blafu_slag</t>
+          <t>iip_steel_iron_pellets</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sec_heat_high</t>
+          <t>emi_CO2_f_ind</t>
         </is>
       </c>
     </row>
@@ -10353,19 +10617,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x_neg_reusable</t>
+          <t>emi_CO2_f_x2x_neg_stored]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>emi_CO2_f_x2x</t>
         </is>
       </c>
     </row>
@@ -10377,7 +10641,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sec_heavy_fuel_oil</t>
+          <t>CO2_f_pow</t>
         </is>
       </c>
     </row>
@@ -10389,19 +10653,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CO2_f_pow</t>
+          <t>iip_steel_blafu_slag</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[emi_CO2_f_x2x_neg_reusable</t>
+          <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10677,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>pri_wind_energy_on</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10689,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>pri_waste</t>
+          <t>pri_hydro_energy</t>
         </is>
       </c>
     </row>
@@ -10437,7 +10701,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>pri_biomass</t>
+          <t>sec_elec</t>
         </is>
       </c>
     </row>
@@ -10473,19 +10737,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pri_uran</t>
+          <t>sec_biogas</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>iip_steel_scrap</t>
+          <t>pri_geoth_heat</t>
         </is>
       </c>
     </row>
@@ -10497,31 +10761,31 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x_neg_stored]</t>
+          <t>emi_N2O_f_ind</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>emi_CO2_f_ind</t>
+          <t>iip_steel_iron_ore</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>iip_steel_raw_iron</t>
+          <t>pri_solar_radiation</t>
         </is>
       </c>
     </row>
@@ -10533,7 +10797,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>sec_heat_high</t>
         </is>
       </c>
     </row>
@@ -10545,19 +10809,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>iip_heat_proc</t>
+          <t>sec_methane</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>emi_CH4_f_ind</t>
+          <t>iip_coke</t>
         </is>
       </c>
     </row>
@@ -10569,7 +10833,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pri_crude_oil</t>
+          <t>sec_H2</t>
         </is>
       </c>
     </row>
@@ -10581,43 +10845,43 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sec_natural_gas_syn</t>
+          <t>pri_coal</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>emi_CO2_f_x2x</t>
+          <t>pri_crude_oil</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>iip_steel_oxygen</t>
+          <t>emi_CH4_f_ind</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sec_H2</t>
+          <t>iip_steel_oxygen</t>
         </is>
       </c>
     </row>
@@ -10629,19 +10893,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sec_biogas</t>
+          <t>sec_heating_oil</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>pri_coal</t>
+          <t>iip_steel_sinter</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10917,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sec_heating_oil</t>
+          <t>sec_elec_ind</t>
         </is>
       </c>
     </row>
@@ -10665,19 +10929,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>pri_geoth_heat</t>
+          <t>pri_natural_gas</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>pri_deuterium</t>
+          <t>emi_CO2_f_x2x_neg_reusable</t>
         </is>
       </c>
     </row>
@@ -10689,55 +10953,55 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>iip_steel_iron_pellets</t>
+          <t>iip_steel_raw_iron</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>exo_steel</t>
+          <t>pri_uran</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>iip_steel_iron_ore</t>
+          <t>pri_biomass</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>emi_N2O_f_ind</t>
+          <t>pri_waste</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pri_hydro_energy</t>
+          <t>iip_steel_scrap</t>
         </is>
       </c>
     </row>

--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -511,16 +511,16 @@
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="21" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
-    <col width="21" customWidth="1" min="15" max="15"/>
-    <col width="21" customWidth="1" min="16" max="16"/>
-    <col width="21" customWidth="1" min="17" max="17"/>
-    <col width="21" customWidth="1" min="18" max="18"/>
-    <col width="21" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="19" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3414,34 +3414,34 @@
       <c r="H81" s="8" t="inlineStr"/>
       <c r="I81" s="8" t="inlineStr"/>
       <c r="J81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="L81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="M81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="N81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="O81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="P81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="Q81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="R81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
       <c r="S81" s="8" t="n">
-        <v>0.2313</v>
+        <v>4.32338953739732</v>
       </c>
     </row>
     <row r="82">
@@ -3468,7 +3468,11 @@
         </is>
       </c>
       <c r="H82" s="8" t="inlineStr"/>
-      <c r="I82" s="8" t="inlineStr"/>
+      <c r="I82" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J82" s="8" t="n">
         <v>100</v>
       </c>
@@ -3524,7 +3528,11 @@
         </is>
       </c>
       <c r="H83" s="8" t="inlineStr"/>
-      <c r="I83" s="8" t="inlineStr"/>
+      <c r="I83" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J83" s="8" t="n">
         <v>0</v>
       </c>
@@ -3668,7 +3676,11 @@
       <c r="F86" s="8" t="inlineStr"/>
       <c r="G86" s="8" t="inlineStr"/>
       <c r="H86" s="8" t="inlineStr"/>
-      <c r="I86" s="8" t="inlineStr"/>
+      <c r="I86" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J86" s="8" t="n">
         <v>0</v>
       </c>
@@ -4240,7 +4252,11 @@
       <c r="F99" s="7" t="inlineStr"/>
       <c r="G99" s="7" t="inlineStr"/>
       <c r="H99" s="7" t="inlineStr"/>
-      <c r="I99" s="7" t="inlineStr"/>
+      <c r="I99" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J99" s="7" t="n">
         <v>0</v>
       </c>
@@ -4946,7 +4962,11 @@
       <c r="F117" s="8" t="inlineStr"/>
       <c r="G117" s="8" t="inlineStr"/>
       <c r="H117" s="8" t="inlineStr"/>
-      <c r="I117" s="8" t="inlineStr"/>
+      <c r="I117" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J117" s="8" t="n">
         <v>0</v>
       </c>
@@ -5446,34 +5466,34 @@
       <c r="H129" s="7" t="inlineStr"/>
       <c r="I129" s="7" t="inlineStr"/>
       <c r="J129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="K129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="L129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="M129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="N129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="O129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="Q129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="R129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="S129" s="7" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
     </row>
     <row r="130">
@@ -5500,7 +5520,11 @@
         </is>
       </c>
       <c r="H130" s="7" t="inlineStr"/>
-      <c r="I130" s="7" t="inlineStr"/>
+      <c r="I130" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J130" s="7" t="n">
         <v>100</v>
       </c>
@@ -5556,7 +5580,11 @@
         </is>
       </c>
       <c r="H131" s="7" t="inlineStr"/>
-      <c r="I131" s="7" t="inlineStr"/>
+      <c r="I131" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J131" s="7" t="n">
         <v>0</v>
       </c>
@@ -5700,7 +5728,11 @@
       <c r="F134" s="7" t="inlineStr"/>
       <c r="G134" s="7" t="inlineStr"/>
       <c r="H134" s="7" t="inlineStr"/>
-      <c r="I134" s="7" t="inlineStr"/>
+      <c r="I134" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J134" s="7" t="n">
         <v>0</v>
       </c>
@@ -6051,31 +6083,31 @@
       <c r="I142" s="8" t="inlineStr"/>
       <c r="J142" s="8" t="inlineStr"/>
       <c r="K142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="L142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="M142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="N142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="O142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="P142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="Q142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="R142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
       <c r="S142" s="8" t="n">
-        <v>1.577400000000001</v>
+        <v>0.633954608850006</v>
       </c>
     </row>
     <row r="143">
@@ -6102,7 +6134,11 @@
         </is>
       </c>
       <c r="H143" s="8" t="inlineStr"/>
-      <c r="I143" s="8" t="inlineStr"/>
+      <c r="I143" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J143" s="8" t="inlineStr"/>
       <c r="K143" s="8" t="n">
         <v>100</v>
@@ -6156,7 +6192,11 @@
         </is>
       </c>
       <c r="H144" s="8" t="inlineStr"/>
-      <c r="I144" s="8" t="inlineStr"/>
+      <c r="I144" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J144" s="8" t="inlineStr"/>
       <c r="K144" s="8" t="n">
         <v>0</v>
@@ -6248,7 +6288,11 @@
       <c r="F146" s="8" t="inlineStr"/>
       <c r="G146" s="8" t="inlineStr"/>
       <c r="H146" s="8" t="inlineStr"/>
-      <c r="I146" s="8" t="inlineStr"/>
+      <c r="I146" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J146" s="8" t="n">
         <v>0</v>
       </c>
@@ -6715,31 +6759,31 @@
       <c r="I157" s="7" t="inlineStr"/>
       <c r="J157" s="7" t="inlineStr"/>
       <c r="K157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="L157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="M157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="N157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="O157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="P157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="Q157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="R157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="S157" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
     </row>
     <row r="158">
@@ -6766,7 +6810,11 @@
         </is>
       </c>
       <c r="H158" s="7" t="inlineStr"/>
-      <c r="I158" s="7" t="inlineStr"/>
+      <c r="I158" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J158" s="7" t="inlineStr"/>
       <c r="K158" s="7" t="n">
         <v>100</v>
@@ -6820,7 +6868,11 @@
         </is>
       </c>
       <c r="H159" s="7" t="inlineStr"/>
-      <c r="I159" s="7" t="inlineStr"/>
+      <c r="I159" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J159" s="7" t="inlineStr"/>
       <c r="K159" s="7" t="n">
         <v>0</v>
@@ -6912,7 +6964,11 @@
       <c r="F161" s="7" t="inlineStr"/>
       <c r="G161" s="7" t="inlineStr"/>
       <c r="H161" s="7" t="inlineStr"/>
-      <c r="I161" s="7" t="inlineStr"/>
+      <c r="I161" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J161" s="7" t="n">
         <v>0</v>
       </c>
@@ -7384,34 +7440,34 @@
       <c r="H172" s="8" t="inlineStr"/>
       <c r="I172" s="8" t="inlineStr"/>
       <c r="J172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="K172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="L172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="M172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="N172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="O172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="P172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="Q172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="R172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
       <c r="S172" s="8" t="n">
-        <v>0.8645000000000015</v>
+        <v>1.15673799884326</v>
       </c>
     </row>
     <row r="173">
@@ -7438,7 +7494,11 @@
         </is>
       </c>
       <c r="H173" s="8" t="inlineStr"/>
-      <c r="I173" s="8" t="inlineStr"/>
+      <c r="I173" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J173" s="8" t="n">
         <v>100</v>
       </c>
@@ -7494,7 +7554,11 @@
         </is>
       </c>
       <c r="H174" s="8" t="inlineStr"/>
-      <c r="I174" s="8" t="inlineStr"/>
+      <c r="I174" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J174" s="8" t="n">
         <v>0</v>
       </c>
@@ -7638,7 +7702,11 @@
       <c r="F177" s="8" t="inlineStr"/>
       <c r="G177" s="8" t="inlineStr"/>
       <c r="H177" s="8" t="inlineStr"/>
-      <c r="I177" s="8" t="inlineStr"/>
+      <c r="I177" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J177" s="8" t="n">
         <v>0</v>
       </c>
@@ -7939,31 +8007,31 @@
       <c r="I184" s="7" t="inlineStr"/>
       <c r="J184" s="7" t="inlineStr"/>
       <c r="K184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="L184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="M184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="N184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="O184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="P184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="Q184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="R184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
       <c r="S184" s="7" t="n">
-        <v>0.3366000000000001</v>
+        <v>2.9708853238265</v>
       </c>
     </row>
     <row r="185">
@@ -7990,7 +8058,11 @@
         </is>
       </c>
       <c r="H185" s="7" t="inlineStr"/>
-      <c r="I185" s="7" t="inlineStr"/>
+      <c r="I185" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J185" s="7" t="inlineStr"/>
       <c r="K185" s="7" t="n">
         <v>100</v>
@@ -8044,7 +8116,11 @@
         </is>
       </c>
       <c r="H186" s="7" t="inlineStr"/>
-      <c r="I186" s="7" t="inlineStr"/>
+      <c r="I186" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J186" s="7" t="inlineStr"/>
       <c r="K186" s="7" t="n">
         <v>0</v>
@@ -8136,7 +8212,11 @@
       <c r="F188" s="7" t="inlineStr"/>
       <c r="G188" s="7" t="inlineStr"/>
       <c r="H188" s="7" t="inlineStr"/>
-      <c r="I188" s="7" t="inlineStr"/>
+      <c r="I188" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J188" s="7" t="n">
         <v>0</v>
       </c>
@@ -8522,7 +8602,11 @@
       <c r="F197" s="8" t="inlineStr"/>
       <c r="G197" s="8" t="inlineStr"/>
       <c r="H197" s="8" t="inlineStr"/>
-      <c r="I197" s="8" t="inlineStr"/>
+      <c r="I197" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J197" s="8" t="n">
         <v>0</v>
       </c>
@@ -8936,34 +9020,34 @@
       <c r="H207" s="7" t="inlineStr"/>
       <c r="I207" s="7" t="inlineStr"/>
       <c r="J207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="K207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="L207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="M207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="N207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="O207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="Q207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="R207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
       <c r="S207" s="7" t="n">
-        <v>0.04790000000000001</v>
+        <v>20.8768267223382</v>
       </c>
     </row>
     <row r="208">
@@ -8990,7 +9074,11 @@
         </is>
       </c>
       <c r="H208" s="7" t="inlineStr"/>
-      <c r="I208" s="7" t="inlineStr"/>
+      <c r="I208" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J208" s="7" t="n">
         <v>100</v>
       </c>
@@ -9046,7 +9134,11 @@
         </is>
       </c>
       <c r="H209" s="7" t="inlineStr"/>
-      <c r="I209" s="7" t="inlineStr"/>
+      <c r="I209" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J209" s="7" t="n">
         <v>0</v>
       </c>
@@ -9190,7 +9282,11 @@
       <c r="F212" s="7" t="inlineStr"/>
       <c r="G212" s="7" t="inlineStr"/>
       <c r="H212" s="7" t="inlineStr"/>
-      <c r="I212" s="7" t="inlineStr"/>
+      <c r="I212" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J212" s="7" t="n">
         <v>0</v>
       </c>
@@ -9491,31 +9587,31 @@
       <c r="I219" s="8" t="inlineStr"/>
       <c r="J219" s="8" t="inlineStr"/>
       <c r="K219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="L219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="M219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="N219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="O219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="P219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="Q219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="R219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="S219" s="8" t="n">
-        <v>0.11</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="220">
@@ -9542,7 +9638,11 @@
         </is>
       </c>
       <c r="H220" s="8" t="inlineStr"/>
-      <c r="I220" s="8" t="inlineStr"/>
+      <c r="I220" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J220" s="8" t="inlineStr"/>
       <c r="K220" s="8" t="n">
         <v>100</v>
@@ -9596,7 +9696,11 @@
         </is>
       </c>
       <c r="H221" s="8" t="inlineStr"/>
-      <c r="I221" s="8" t="inlineStr"/>
+      <c r="I221" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J221" s="8" t="inlineStr"/>
       <c r="K221" s="8" t="n">
         <v>0</v>
@@ -9688,7 +9792,11 @@
       <c r="F223" s="8" t="inlineStr"/>
       <c r="G223" s="8" t="inlineStr"/>
       <c r="H223" s="8" t="inlineStr"/>
-      <c r="I223" s="8" t="inlineStr"/>
+      <c r="I223" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J223" s="8" t="n">
         <v>0</v>
       </c>
@@ -10194,7 +10302,11 @@
       <c r="F235" s="7" t="inlineStr"/>
       <c r="G235" s="7" t="inlineStr"/>
       <c r="H235" s="7" t="inlineStr"/>
-      <c r="I235" s="7" t="inlineStr"/>
+      <c r="I235" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J235" s="7" t="n">
         <v>0</v>
       </c>
@@ -10666,34 +10778,34 @@
       <c r="H246" s="8" t="inlineStr"/>
       <c r="I246" s="8" t="inlineStr"/>
       <c r="J246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="K246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="L246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="M246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="N246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="O246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="P246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="Q246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="R246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
       <c r="S246" s="8" t="n">
-        <v>0.06349999999999997</v>
+        <v>15.748031496063</v>
       </c>
     </row>
     <row r="247">
@@ -10720,7 +10832,11 @@
         </is>
       </c>
       <c r="H247" s="8" t="inlineStr"/>
-      <c r="I247" s="8" t="inlineStr"/>
+      <c r="I247" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J247" s="8" t="n">
         <v>100</v>
       </c>
@@ -10776,7 +10892,11 @@
         </is>
       </c>
       <c r="H248" s="8" t="inlineStr"/>
-      <c r="I248" s="8" t="inlineStr"/>
+      <c r="I248" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J248" s="8" t="n">
         <v>0</v>
       </c>
@@ -10920,7 +11040,11 @@
       <c r="F251" s="8" t="inlineStr"/>
       <c r="G251" s="8" t="inlineStr"/>
       <c r="H251" s="8" t="inlineStr"/>
-      <c r="I251" s="8" t="inlineStr"/>
+      <c r="I251" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J251" s="8" t="n">
         <v>0</v>
       </c>
@@ -11242,7 +11366,11 @@
       <c r="F259" s="7" t="inlineStr"/>
       <c r="G259" s="7" t="inlineStr"/>
       <c r="H259" s="7" t="inlineStr"/>
-      <c r="I259" s="7" t="inlineStr"/>
+      <c r="I259" s="7" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J259" s="7" t="n">
         <v>0</v>
       </c>
@@ -11709,31 +11837,31 @@
       <c r="I270" s="8" t="inlineStr"/>
       <c r="J270" s="8" t="inlineStr"/>
       <c r="K270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="L270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="M270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="N270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="O270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="P270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Q270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="R270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="S270" s="8" t="n">
-        <v>11</v>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="271">
@@ -11760,7 +11888,11 @@
         </is>
       </c>
       <c r="H271" s="8" t="inlineStr"/>
-      <c r="I271" s="8" t="inlineStr"/>
+      <c r="I271" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J271" s="8" t="inlineStr"/>
       <c r="K271" s="8" t="n">
         <v>100</v>
@@ -11814,7 +11946,11 @@
         </is>
       </c>
       <c r="H272" s="8" t="inlineStr"/>
-      <c r="I272" s="8" t="inlineStr"/>
+      <c r="I272" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J272" s="8" t="inlineStr"/>
       <c r="K272" s="8" t="n">
         <v>0</v>
@@ -11906,7 +12042,11 @@
       <c r="F274" s="8" t="inlineStr"/>
       <c r="G274" s="8" t="inlineStr"/>
       <c r="H274" s="8" t="inlineStr"/>
-      <c r="I274" s="8" t="inlineStr"/>
+      <c r="I274" s="8" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
       <c r="J274" s="8" t="n">
         <v>0</v>
       </c>
@@ -12121,11 +12261,7 @@
           <t>sec_hydrogen_orig</t>
         </is>
       </c>
-      <c r="F279" s="7" t="inlineStr">
-        <is>
-          <t>emi_co2_p_x2x</t>
-        </is>
-      </c>
+      <c r="F279" s="7" t="n"/>
       <c r="G279" s="7" t="inlineStr"/>
       <c r="H279" s="7" t="inlineStr"/>
       <c r="I279" s="7" t="inlineStr"/>
@@ -12157,11 +12293,7 @@
           <t>sec_elec</t>
         </is>
       </c>
-      <c r="F280" s="7" t="inlineStr">
-        <is>
-          <t>emi_ch4_p_x2x</t>
-        </is>
-      </c>
+      <c r="F280" s="7" t="n"/>
       <c r="G280" s="7" t="inlineStr"/>
       <c r="H280" s="7" t="inlineStr"/>
       <c r="I280" s="7" t="inlineStr"/>
@@ -12348,11 +12480,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E286" s="7" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
+      <c r="E286" s="7" t="n"/>
       <c r="F286" s="7" t="inlineStr">
         <is>
           <t>sec_methane</t>
@@ -12389,11 +12517,7 @@
           <t>sec_hydrogen</t>
         </is>
       </c>
-      <c r="F287" s="8" t="inlineStr">
-        <is>
-          <t>sec_syngas_sr</t>
-        </is>
-      </c>
+      <c r="F287" s="8" t="n"/>
       <c r="G287" s="8" t="inlineStr"/>
       <c r="H287" s="8" t="inlineStr"/>
       <c r="I287" s="8" t="inlineStr"/>
@@ -14745,7 +14869,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>emi_ch4_f_ind</t>
+          <t>emi_ch4_p_x2x</t>
         </is>
       </c>
     </row>
@@ -14757,19 +14881,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pri_solar_radiation</t>
+          <t>pri_natural_gas</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>iip_heat_proc</t>
+          <t>iip_steel_sponge_iron</t>
         </is>
       </c>
     </row>
@@ -14781,7 +14905,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pri_geoth_heat</t>
+          <t>sec_biogas</t>
         </is>
       </c>
     </row>
@@ -14793,7 +14917,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>emi_co2_f_ind</t>
+          <t>emi_co2_reusable</t>
         </is>
       </c>
     </row>
@@ -14805,19 +14929,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sec_elec</t>
+          <t>pri_coal</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>emi_co2_neg_fuel_cc_ind</t>
+          <t>pri_geoth_heat</t>
         </is>
       </c>
     </row>
@@ -14829,43 +14953,43 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>generic_commodity</t>
+          <t>sec_natural_gas_syn</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sec_hydrogen_orig</t>
+          <t>emi_co2_neg_fuel_cc_ind</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sec_heat_high_other</t>
+          <t>exo_steel</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pri_natural_gas</t>
+          <t>emi_ch4_f_ind</t>
         </is>
       </c>
     </row>
@@ -14877,31 +15001,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>iip_steel_crudesteel</t>
+          <t>iip_steel_scrap</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>emi_ch4_p_x2x</t>
+          <t>sec_elec</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pri_envir_heat</t>
+          <t>iip_steel_sinter</t>
         </is>
       </c>
     </row>
@@ -14913,67 +15037,67 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>emi_co2_p_x2x</t>
+          <t>emi_co2_f_pow</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>iip_steel_sinter</t>
+          <t>emi_n2o_p_x2x</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>exo_steel</t>
+          <t>sec_waste_heat_high_steel</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>emi_co2_neg_air_dacc</t>
+          <t>iip_heat_proc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sec_heat_low</t>
+          <t>emi_n2o_f_ind</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>iip_steel_iron_pellets</t>
         </is>
       </c>
     </row>
@@ -14985,7 +15109,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>iip_coke</t>
+          <t>sec_elec_ind</t>
         </is>
       </c>
     </row>
@@ -14997,19 +15121,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sec_natural_gas_syn</t>
+          <t>iip_cooling</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sec_heat_high</t>
+          <t>iip_steel_blafu_slag</t>
         </is>
       </c>
     </row>
@@ -15021,31 +15145,31 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sec_syngas_sr</t>
+          <t>iip_steel_sintert</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>iip_cooling</t>
+          <t>iip_steel_crudesteel</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>emi_n2o_p_x2x</t>
+          <t>sec_heat_low</t>
         </is>
       </c>
     </row>
@@ -15057,31 +15181,31 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sec_methane</t>
+          <t>sec_methane_orig</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sec_biogas</t>
+          <t>emi_co2_neg_imp</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>iip_steel_blafu_slag</t>
+          <t>iip_coke</t>
         </is>
       </c>
     </row>
@@ -15093,7 +15217,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sec_heavy_fuel_oil</t>
+          <t>sec_methane</t>
         </is>
       </c>
     </row>
@@ -15105,19 +15229,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>iip_steel_scrap</t>
+          <t>iip_steel_raw_iron</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sec_methane_orig</t>
+          <t>emi_co2_neg_air_dacc</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15253,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>pri_coal</t>
+          <t>sec_heat_high</t>
         </is>
       </c>
     </row>
@@ -15141,7 +15265,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sec_waste_heat_high_steel</t>
+          <t>pri_envir_heat</t>
         </is>
       </c>
     </row>
@@ -15153,31 +15277,31 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>iip_steel_sintert</t>
+          <t>sec_syngas_sr</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>iip_steel_sponge_iron</t>
+          <t>emi_co2_f_ind</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>iip_steel_raw_iron</t>
+          <t>sec_heat_high_other</t>
         </is>
       </c>
     </row>
@@ -15189,7 +15313,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sec_hydrogen</t>
+          <t>sec_hydrogen_orig</t>
         </is>
       </c>
     </row>
@@ -15201,55 +15325,55 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>emi_co2_f_pow</t>
+          <t>emi_co2_p_x2x</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>emi_co2_neg_imp</t>
+          <t>sec_hydrogen</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>emi_n2o_f_ind</t>
+          <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>iip_steel_iron_pellets</t>
+          <t>generic_commodity</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>emi_co2_reusable</t>
+          <t>pri_solar_radiation</t>
         </is>
       </c>
     </row>

--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -494,7 +494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S356"/>
+  <dimension ref="A1:S278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,7 +2760,7 @@
           <t>OUTPUT</t>
         </is>
       </c>
-      <c r="E67" s="8" t="inlineStr"/>
+      <c r="E67" s="8" t="n"/>
       <c r="F67" s="8" t="inlineStr">
         <is>
           <t>iip_coke</t>
@@ -12244,2502 +12244,6 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="279">
-      <c r="B279" s="7" t="inlineStr">
-        <is>
-          <t>x2x_delivery_hydrogen_pipeline_new_1</t>
-        </is>
-      </c>
-      <c r="C279" s="7" t="inlineStr"/>
-      <c r="D279" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E279" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="F279" s="7" t="n"/>
-      <c r="G279" s="7" t="inlineStr"/>
-      <c r="H279" s="7" t="inlineStr"/>
-      <c r="I279" s="7" t="inlineStr"/>
-      <c r="J279" s="7" t="inlineStr"/>
-      <c r="K279" s="7" t="inlineStr"/>
-      <c r="L279" s="7" t="inlineStr"/>
-      <c r="M279" s="7" t="inlineStr"/>
-      <c r="N279" s="7" t="inlineStr"/>
-      <c r="O279" s="7" t="inlineStr"/>
-      <c r="P279" s="7" t="inlineStr"/>
-      <c r="Q279" s="7" t="inlineStr"/>
-      <c r="R279" s="7" t="inlineStr"/>
-      <c r="S279" s="7" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="B280" s="7" t="inlineStr">
-        <is>
-          <t>x2x_delivery_hydrogen_pipeline_new_1</t>
-        </is>
-      </c>
-      <c r="C280" s="7" t="inlineStr"/>
-      <c r="D280" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E280" s="7" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F280" s="7" t="n"/>
-      <c r="G280" s="7" t="inlineStr"/>
-      <c r="H280" s="7" t="inlineStr"/>
-      <c r="I280" s="7" t="inlineStr"/>
-      <c r="J280" s="7" t="inlineStr"/>
-      <c r="K280" s="7" t="inlineStr"/>
-      <c r="L280" s="7" t="inlineStr"/>
-      <c r="M280" s="7" t="inlineStr"/>
-      <c r="N280" s="7" t="inlineStr"/>
-      <c r="O280" s="7" t="inlineStr"/>
-      <c r="P280" s="7" t="inlineStr"/>
-      <c r="Q280" s="7" t="inlineStr"/>
-      <c r="R280" s="7" t="inlineStr"/>
-      <c r="S280" s="7" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="B281" s="7" t="inlineStr">
-        <is>
-          <t>x2x_delivery_hydrogen_pipeline_new_1</t>
-        </is>
-      </c>
-      <c r="C281" s="7" t="inlineStr"/>
-      <c r="D281" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E281" s="7" t="n"/>
-      <c r="F281" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="G281" s="7" t="inlineStr"/>
-      <c r="H281" s="7" t="inlineStr"/>
-      <c r="I281" s="7" t="inlineStr"/>
-      <c r="J281" s="7" t="inlineStr"/>
-      <c r="K281" s="7" t="inlineStr"/>
-      <c r="L281" s="7" t="inlineStr"/>
-      <c r="M281" s="7" t="inlineStr"/>
-      <c r="N281" s="7" t="inlineStr"/>
-      <c r="O281" s="7" t="inlineStr"/>
-      <c r="P281" s="7" t="inlineStr"/>
-      <c r="Q281" s="7" t="inlineStr"/>
-      <c r="R281" s="7" t="inlineStr"/>
-      <c r="S281" s="7" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="B282" s="8" t="inlineStr">
-        <is>
-          <t>x2x_delivery_hydrogen_pipeline_retrofit_1</t>
-        </is>
-      </c>
-      <c r="C282" s="8" t="inlineStr"/>
-      <c r="D282" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E282" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="F282" s="8" t="n"/>
-      <c r="G282" s="8" t="inlineStr"/>
-      <c r="H282" s="8" t="inlineStr"/>
-      <c r="I282" s="8" t="inlineStr"/>
-      <c r="J282" s="8" t="inlineStr"/>
-      <c r="K282" s="8" t="inlineStr"/>
-      <c r="L282" s="8" t="inlineStr"/>
-      <c r="M282" s="8" t="inlineStr"/>
-      <c r="N282" s="8" t="inlineStr"/>
-      <c r="O282" s="8" t="inlineStr"/>
-      <c r="P282" s="8" t="inlineStr"/>
-      <c r="Q282" s="8" t="inlineStr"/>
-      <c r="R282" s="8" t="inlineStr"/>
-      <c r="S282" s="8" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="B283" s="8" t="inlineStr">
-        <is>
-          <t>x2x_delivery_hydrogen_pipeline_retrofit_1</t>
-        </is>
-      </c>
-      <c r="C283" s="8" t="inlineStr"/>
-      <c r="D283" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E283" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F283" s="8" t="n"/>
-      <c r="G283" s="8" t="inlineStr"/>
-      <c r="H283" s="8" t="inlineStr"/>
-      <c r="I283" s="8" t="inlineStr"/>
-      <c r="J283" s="8" t="inlineStr"/>
-      <c r="K283" s="8" t="inlineStr"/>
-      <c r="L283" s="8" t="inlineStr"/>
-      <c r="M283" s="8" t="inlineStr"/>
-      <c r="N283" s="8" t="inlineStr"/>
-      <c r="O283" s="8" t="inlineStr"/>
-      <c r="P283" s="8" t="inlineStr"/>
-      <c r="Q283" s="8" t="inlineStr"/>
-      <c r="R283" s="8" t="inlineStr"/>
-      <c r="S283" s="8" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="B284" s="8" t="inlineStr">
-        <is>
-          <t>x2x_delivery_hydrogen_pipeline_retrofit_1</t>
-        </is>
-      </c>
-      <c r="C284" s="8" t="inlineStr"/>
-      <c r="D284" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E284" s="8" t="n"/>
-      <c r="F284" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="G284" s="8" t="inlineStr"/>
-      <c r="H284" s="8" t="inlineStr"/>
-      <c r="I284" s="8" t="inlineStr"/>
-      <c r="J284" s="8" t="inlineStr"/>
-      <c r="K284" s="8" t="inlineStr"/>
-      <c r="L284" s="8" t="inlineStr"/>
-      <c r="M284" s="8" t="inlineStr"/>
-      <c r="N284" s="8" t="inlineStr"/>
-      <c r="O284" s="8" t="inlineStr"/>
-      <c r="P284" s="8" t="inlineStr"/>
-      <c r="Q284" s="8" t="inlineStr"/>
-      <c r="R284" s="8" t="inlineStr"/>
-      <c r="S284" s="8" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="B285" s="7" t="inlineStr">
-        <is>
-          <t>x2x_delivery_methane_pipeline_0</t>
-        </is>
-      </c>
-      <c r="C285" s="7" t="inlineStr"/>
-      <c r="D285" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E285" s="7" t="inlineStr">
-        <is>
-          <t>sec_methane_orig</t>
-        </is>
-      </c>
-      <c r="F285" s="7" t="n"/>
-      <c r="G285" s="7" t="inlineStr"/>
-      <c r="H285" s="7" t="inlineStr"/>
-      <c r="I285" s="7" t="inlineStr"/>
-      <c r="J285" s="7" t="inlineStr"/>
-      <c r="K285" s="7" t="inlineStr"/>
-      <c r="L285" s="7" t="inlineStr"/>
-      <c r="M285" s="7" t="inlineStr"/>
-      <c r="N285" s="7" t="inlineStr"/>
-      <c r="O285" s="7" t="inlineStr"/>
-      <c r="P285" s="7" t="inlineStr"/>
-      <c r="Q285" s="7" t="inlineStr"/>
-      <c r="R285" s="7" t="inlineStr"/>
-      <c r="S285" s="7" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="B286" s="7" t="inlineStr">
-        <is>
-          <t>x2x_delivery_methane_pipeline_0</t>
-        </is>
-      </c>
-      <c r="C286" s="7" t="inlineStr"/>
-      <c r="D286" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E286" s="7" t="n"/>
-      <c r="F286" s="7" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-      <c r="G286" s="7" t="inlineStr"/>
-      <c r="H286" s="7" t="inlineStr"/>
-      <c r="I286" s="7" t="inlineStr"/>
-      <c r="J286" s="7" t="inlineStr"/>
-      <c r="K286" s="7" t="inlineStr"/>
-      <c r="L286" s="7" t="inlineStr"/>
-      <c r="M286" s="7" t="inlineStr"/>
-      <c r="N286" s="7" t="inlineStr"/>
-      <c r="O286" s="7" t="inlineStr"/>
-      <c r="P286" s="7" t="inlineStr"/>
-      <c r="Q286" s="7" t="inlineStr"/>
-      <c r="R286" s="7" t="inlineStr"/>
-      <c r="S286" s="7" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="B287" s="8" t="inlineStr">
-        <is>
-          <t>x2x_g2p_pemfc_ls_1</t>
-        </is>
-      </c>
-      <c r="C287" s="8" t="inlineStr"/>
-      <c r="D287" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E287" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="F287" s="8" t="n"/>
-      <c r="G287" s="8" t="inlineStr"/>
-      <c r="H287" s="8" t="inlineStr"/>
-      <c r="I287" s="8" t="inlineStr"/>
-      <c r="J287" s="8" t="inlineStr"/>
-      <c r="K287" s="8" t="inlineStr"/>
-      <c r="L287" s="8" t="inlineStr"/>
-      <c r="M287" s="8" t="inlineStr"/>
-      <c r="N287" s="8" t="inlineStr"/>
-      <c r="O287" s="8" t="inlineStr"/>
-      <c r="P287" s="8" t="inlineStr"/>
-      <c r="Q287" s="8" t="inlineStr"/>
-      <c r="R287" s="8" t="inlineStr"/>
-      <c r="S287" s="8" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="B288" s="8" t="inlineStr">
-        <is>
-          <t>x2x_g2p_pemfc_ls_1</t>
-        </is>
-      </c>
-      <c r="C288" s="8" t="inlineStr"/>
-      <c r="D288" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E288" s="8" t="n"/>
-      <c r="F288" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="G288" s="8" t="inlineStr"/>
-      <c r="H288" s="8" t="inlineStr"/>
-      <c r="I288" s="8" t="inlineStr"/>
-      <c r="J288" s="8" t="inlineStr"/>
-      <c r="K288" s="8" t="inlineStr"/>
-      <c r="L288" s="8" t="inlineStr"/>
-      <c r="M288" s="8" t="inlineStr"/>
-      <c r="N288" s="8" t="inlineStr"/>
-      <c r="O288" s="8" t="inlineStr"/>
-      <c r="P288" s="8" t="inlineStr"/>
-      <c r="Q288" s="8" t="inlineStr"/>
-      <c r="R288" s="8" t="inlineStr"/>
-      <c r="S288" s="8" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="B289" s="8" t="inlineStr">
-        <is>
-          <t>x2x_g2p_pemfc_ls_1</t>
-        </is>
-      </c>
-      <c r="C289" s="8" t="inlineStr"/>
-      <c r="D289" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E289" s="8" t="n"/>
-      <c r="F289" s="8" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-      <c r="G289" s="8" t="inlineStr"/>
-      <c r="H289" s="8" t="inlineStr"/>
-      <c r="I289" s="8" t="inlineStr"/>
-      <c r="J289" s="8" t="inlineStr"/>
-      <c r="K289" s="8" t="inlineStr"/>
-      <c r="L289" s="8" t="inlineStr"/>
-      <c r="M289" s="8" t="inlineStr"/>
-      <c r="N289" s="8" t="inlineStr"/>
-      <c r="O289" s="8" t="inlineStr"/>
-      <c r="P289" s="8" t="inlineStr"/>
-      <c r="Q289" s="8" t="inlineStr"/>
-      <c r="R289" s="8" t="inlineStr"/>
-      <c r="S289" s="8" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="B290" s="7" t="inlineStr">
-        <is>
-          <t>x2x_g2p_sofc_ls_1</t>
-        </is>
-      </c>
-      <c r="C290" s="7" t="inlineStr"/>
-      <c r="D290" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E290" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="F290" s="7" t="n"/>
-      <c r="G290" s="7" t="inlineStr"/>
-      <c r="H290" s="7" t="inlineStr"/>
-      <c r="I290" s="7" t="inlineStr"/>
-      <c r="J290" s="7" t="inlineStr"/>
-      <c r="K290" s="7" t="inlineStr"/>
-      <c r="L290" s="7" t="inlineStr"/>
-      <c r="M290" s="7" t="inlineStr"/>
-      <c r="N290" s="7" t="inlineStr"/>
-      <c r="O290" s="7" t="inlineStr"/>
-      <c r="P290" s="7" t="inlineStr"/>
-      <c r="Q290" s="7" t="inlineStr"/>
-      <c r="R290" s="7" t="inlineStr"/>
-      <c r="S290" s="7" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="B291" s="7" t="inlineStr">
-        <is>
-          <t>x2x_g2p_sofc_ls_1</t>
-        </is>
-      </c>
-      <c r="C291" s="7" t="inlineStr"/>
-      <c r="D291" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E291" s="7" t="n"/>
-      <c r="F291" s="7" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="G291" s="7" t="inlineStr"/>
-      <c r="H291" s="7" t="inlineStr"/>
-      <c r="I291" s="7" t="inlineStr"/>
-      <c r="J291" s="7" t="inlineStr"/>
-      <c r="K291" s="7" t="inlineStr"/>
-      <c r="L291" s="7" t="inlineStr"/>
-      <c r="M291" s="7" t="inlineStr"/>
-      <c r="N291" s="7" t="inlineStr"/>
-      <c r="O291" s="7" t="inlineStr"/>
-      <c r="P291" s="7" t="inlineStr"/>
-      <c r="Q291" s="7" t="inlineStr"/>
-      <c r="R291" s="7" t="inlineStr"/>
-      <c r="S291" s="7" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="B292" s="7" t="inlineStr">
-        <is>
-          <t>x2x_g2p_sofc_ls_1</t>
-        </is>
-      </c>
-      <c r="C292" s="7" t="inlineStr"/>
-      <c r="D292" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E292" s="7" t="n"/>
-      <c r="F292" s="7" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-      <c r="G292" s="7" t="inlineStr"/>
-      <c r="H292" s="7" t="inlineStr"/>
-      <c r="I292" s="7" t="inlineStr"/>
-      <c r="J292" s="7" t="inlineStr"/>
-      <c r="K292" s="7" t="inlineStr"/>
-      <c r="L292" s="7" t="inlineStr"/>
-      <c r="M292" s="7" t="inlineStr"/>
-      <c r="N292" s="7" t="inlineStr"/>
-      <c r="O292" s="7" t="inlineStr"/>
-      <c r="P292" s="7" t="inlineStr"/>
-      <c r="Q292" s="7" t="inlineStr"/>
-      <c r="R292" s="7" t="inlineStr"/>
-      <c r="S292" s="7" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="B293" s="8" t="inlineStr">
-        <is>
-          <t>x2x_import_biogas</t>
-        </is>
-      </c>
-      <c r="C293" s="8" t="inlineStr"/>
-      <c r="D293" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E293" s="8" t="inlineStr">
-        <is>
-          <t>generic_commodity</t>
-        </is>
-      </c>
-      <c r="F293" s="8" t="n"/>
-      <c r="G293" s="8" t="inlineStr"/>
-      <c r="H293" s="8" t="inlineStr"/>
-      <c r="I293" s="8" t="inlineStr"/>
-      <c r="J293" s="8" t="inlineStr"/>
-      <c r="K293" s="8" t="inlineStr"/>
-      <c r="L293" s="8" t="inlineStr"/>
-      <c r="M293" s="8" t="inlineStr"/>
-      <c r="N293" s="8" t="inlineStr"/>
-      <c r="O293" s="8" t="inlineStr"/>
-      <c r="P293" s="8" t="inlineStr"/>
-      <c r="Q293" s="8" t="inlineStr"/>
-      <c r="R293" s="8" t="inlineStr"/>
-      <c r="S293" s="8" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="B294" s="8" t="inlineStr">
-        <is>
-          <t>x2x_import_biogas</t>
-        </is>
-      </c>
-      <c r="C294" s="8" t="inlineStr"/>
-      <c r="D294" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E294" s="8" t="n"/>
-      <c r="F294" s="8" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-      <c r="G294" s="8" t="inlineStr"/>
-      <c r="H294" s="8" t="inlineStr"/>
-      <c r="I294" s="8" t="inlineStr"/>
-      <c r="J294" s="8" t="inlineStr"/>
-      <c r="K294" s="8" t="inlineStr"/>
-      <c r="L294" s="8" t="inlineStr"/>
-      <c r="M294" s="8" t="inlineStr"/>
-      <c r="N294" s="8" t="inlineStr"/>
-      <c r="O294" s="8" t="inlineStr"/>
-      <c r="P294" s="8" t="inlineStr"/>
-      <c r="Q294" s="8" t="inlineStr"/>
-      <c r="R294" s="8" t="inlineStr"/>
-      <c r="S294" s="8" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="B295" s="8" t="inlineStr">
-        <is>
-          <t>x2x_import_biogas</t>
-        </is>
-      </c>
-      <c r="C295" s="8" t="inlineStr"/>
-      <c r="D295" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E295" s="8" t="n"/>
-      <c r="F295" s="8" t="inlineStr">
-        <is>
-          <t>emi_co2_neg_imp</t>
-        </is>
-      </c>
-      <c r="G295" s="8" t="inlineStr"/>
-      <c r="H295" s="8" t="inlineStr"/>
-      <c r="I295" s="8" t="inlineStr"/>
-      <c r="J295" s="8" t="inlineStr"/>
-      <c r="K295" s="8" t="inlineStr"/>
-      <c r="L295" s="8" t="inlineStr"/>
-      <c r="M295" s="8" t="inlineStr"/>
-      <c r="N295" s="8" t="inlineStr"/>
-      <c r="O295" s="8" t="inlineStr"/>
-      <c r="P295" s="8" t="inlineStr"/>
-      <c r="Q295" s="8" t="inlineStr"/>
-      <c r="R295" s="8" t="inlineStr"/>
-      <c r="S295" s="8" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="B296" s="7" t="inlineStr">
-        <is>
-          <t>x2x_import_coal</t>
-        </is>
-      </c>
-      <c r="C296" s="7" t="inlineStr"/>
-      <c r="D296" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E296" s="7" t="n"/>
-      <c r="F296" s="7" t="inlineStr">
-        <is>
-          <t>pri_coal</t>
-        </is>
-      </c>
-      <c r="G296" s="7" t="inlineStr"/>
-      <c r="H296" s="7" t="inlineStr"/>
-      <c r="I296" s="7" t="inlineStr"/>
-      <c r="J296" s="7" t="inlineStr"/>
-      <c r="K296" s="7" t="inlineStr"/>
-      <c r="L296" s="7" t="inlineStr"/>
-      <c r="M296" s="7" t="inlineStr"/>
-      <c r="N296" s="7" t="inlineStr"/>
-      <c r="O296" s="7" t="inlineStr"/>
-      <c r="P296" s="7" t="inlineStr"/>
-      <c r="Q296" s="7" t="inlineStr"/>
-      <c r="R296" s="7" t="inlineStr"/>
-      <c r="S296" s="7" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="B297" s="8" t="inlineStr">
-        <is>
-          <t>x2x_import_electricity_from_plug</t>
-        </is>
-      </c>
-      <c r="C297" s="8" t="inlineStr"/>
-      <c r="D297" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E297" s="8" t="inlineStr">
-        <is>
-          <t>generic_commodity</t>
-        </is>
-      </c>
-      <c r="F297" s="8" t="n"/>
-      <c r="G297" s="8" t="inlineStr"/>
-      <c r="H297" s="8" t="inlineStr"/>
-      <c r="I297" s="8" t="inlineStr"/>
-      <c r="J297" s="8" t="inlineStr"/>
-      <c r="K297" s="8" t="inlineStr"/>
-      <c r="L297" s="8" t="inlineStr"/>
-      <c r="M297" s="8" t="inlineStr"/>
-      <c r="N297" s="8" t="inlineStr"/>
-      <c r="O297" s="8" t="inlineStr"/>
-      <c r="P297" s="8" t="inlineStr"/>
-      <c r="Q297" s="8" t="inlineStr"/>
-      <c r="R297" s="8" t="inlineStr"/>
-      <c r="S297" s="8" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="B298" s="8" t="inlineStr">
-        <is>
-          <t>x2x_import_electricity_from_plug</t>
-        </is>
-      </c>
-      <c r="C298" s="8" t="inlineStr"/>
-      <c r="D298" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E298" s="8" t="n"/>
-      <c r="F298" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="G298" s="8" t="inlineStr"/>
-      <c r="H298" s="8" t="inlineStr"/>
-      <c r="I298" s="8" t="inlineStr"/>
-      <c r="J298" s="8" t="inlineStr"/>
-      <c r="K298" s="8" t="inlineStr"/>
-      <c r="L298" s="8" t="inlineStr"/>
-      <c r="M298" s="8" t="inlineStr"/>
-      <c r="N298" s="8" t="inlineStr"/>
-      <c r="O298" s="8" t="inlineStr"/>
-      <c r="P298" s="8" t="inlineStr"/>
-      <c r="Q298" s="8" t="inlineStr"/>
-      <c r="R298" s="8" t="inlineStr"/>
-      <c r="S298" s="8" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="B299" s="8" t="inlineStr">
-        <is>
-          <t>x2x_import_electricity_from_plug</t>
-        </is>
-      </c>
-      <c r="C299" s="8" t="inlineStr"/>
-      <c r="D299" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E299" s="8" t="n"/>
-      <c r="F299" s="8" t="inlineStr">
-        <is>
-          <t>emi_co2_f_pow</t>
-        </is>
-      </c>
-      <c r="G299" s="8" t="inlineStr"/>
-      <c r="H299" s="8" t="inlineStr"/>
-      <c r="I299" s="8" t="inlineStr"/>
-      <c r="J299" s="8" t="inlineStr"/>
-      <c r="K299" s="8" t="inlineStr"/>
-      <c r="L299" s="8" t="inlineStr"/>
-      <c r="M299" s="8" t="inlineStr"/>
-      <c r="N299" s="8" t="inlineStr"/>
-      <c r="O299" s="8" t="inlineStr"/>
-      <c r="P299" s="8" t="inlineStr"/>
-      <c r="Q299" s="8" t="inlineStr"/>
-      <c r="R299" s="8" t="inlineStr"/>
-      <c r="S299" s="8" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="B300" s="7" t="inlineStr">
-        <is>
-          <t>x2x_import_hydrogen_renewable</t>
-        </is>
-      </c>
-      <c r="C300" s="7" t="inlineStr"/>
-      <c r="D300" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E300" s="7" t="n"/>
-      <c r="F300" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="G300" s="7" t="inlineStr"/>
-      <c r="H300" s="7" t="inlineStr"/>
-      <c r="I300" s="7" t="inlineStr"/>
-      <c r="J300" s="7" t="inlineStr"/>
-      <c r="K300" s="7" t="inlineStr"/>
-      <c r="L300" s="7" t="inlineStr"/>
-      <c r="M300" s="7" t="inlineStr"/>
-      <c r="N300" s="7" t="inlineStr"/>
-      <c r="O300" s="7" t="inlineStr"/>
-      <c r="P300" s="7" t="inlineStr"/>
-      <c r="Q300" s="7" t="inlineStr"/>
-      <c r="R300" s="7" t="inlineStr"/>
-      <c r="S300" s="7" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="B301" s="8" t="inlineStr">
-        <is>
-          <t>x2x_other_biogas_treatment</t>
-        </is>
-      </c>
-      <c r="C301" s="8" t="inlineStr"/>
-      <c r="D301" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E301" s="8" t="inlineStr">
-        <is>
-          <t>sec_biogas</t>
-        </is>
-      </c>
-      <c r="F301" s="8" t="n"/>
-      <c r="G301" s="8" t="inlineStr"/>
-      <c r="H301" s="8" t="inlineStr"/>
-      <c r="I301" s="8" t="inlineStr"/>
-      <c r="J301" s="8" t="inlineStr"/>
-      <c r="K301" s="8" t="inlineStr"/>
-      <c r="L301" s="8" t="inlineStr"/>
-      <c r="M301" s="8" t="inlineStr"/>
-      <c r="N301" s="8" t="inlineStr"/>
-      <c r="O301" s="8" t="inlineStr"/>
-      <c r="P301" s="8" t="inlineStr"/>
-      <c r="Q301" s="8" t="inlineStr"/>
-      <c r="R301" s="8" t="inlineStr"/>
-      <c r="S301" s="8" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="B302" s="8" t="inlineStr">
-        <is>
-          <t>x2x_other_biogas_treatment</t>
-        </is>
-      </c>
-      <c r="C302" s="8" t="inlineStr"/>
-      <c r="D302" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E302" s="8" t="n"/>
-      <c r="F302" s="8" t="inlineStr">
-        <is>
-          <t>sec_methane_orig</t>
-        </is>
-      </c>
-      <c r="G302" s="8" t="inlineStr"/>
-      <c r="H302" s="8" t="inlineStr"/>
-      <c r="I302" s="8" t="inlineStr"/>
-      <c r="J302" s="8" t="inlineStr"/>
-      <c r="K302" s="8" t="inlineStr"/>
-      <c r="L302" s="8" t="inlineStr"/>
-      <c r="M302" s="8" t="inlineStr"/>
-      <c r="N302" s="8" t="inlineStr"/>
-      <c r="O302" s="8" t="inlineStr"/>
-      <c r="P302" s="8" t="inlineStr"/>
-      <c r="Q302" s="8" t="inlineStr"/>
-      <c r="R302" s="8" t="inlineStr"/>
-      <c r="S302" s="8" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="B303" s="8" t="inlineStr">
-        <is>
-          <t>x2x_other_biogas_treatment</t>
-        </is>
-      </c>
-      <c r="C303" s="8" t="inlineStr"/>
-      <c r="D303" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E303" s="8" t="n"/>
-      <c r="F303" s="8" t="inlineStr">
-        <is>
-          <t>emi_co2_reusable</t>
-        </is>
-      </c>
-      <c r="G303" s="8" t="inlineStr"/>
-      <c r="H303" s="8" t="inlineStr"/>
-      <c r="I303" s="8" t="inlineStr"/>
-      <c r="J303" s="8" t="inlineStr"/>
-      <c r="K303" s="8" t="inlineStr"/>
-      <c r="L303" s="8" t="inlineStr"/>
-      <c r="M303" s="8" t="inlineStr"/>
-      <c r="N303" s="8" t="inlineStr"/>
-      <c r="O303" s="8" t="inlineStr"/>
-      <c r="P303" s="8" t="inlineStr"/>
-      <c r="Q303" s="8" t="inlineStr"/>
-      <c r="R303" s="8" t="inlineStr"/>
-      <c r="S303" s="8" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="B304" s="7" t="inlineStr">
-        <is>
-          <t>x2x_other_dac_ht_1</t>
-        </is>
-      </c>
-      <c r="C304" s="7" t="inlineStr"/>
-      <c r="D304" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E304" s="7" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F304" s="7" t="n"/>
-      <c r="G304" s="7" t="inlineStr"/>
-      <c r="H304" s="7" t="inlineStr"/>
-      <c r="I304" s="7" t="inlineStr"/>
-      <c r="J304" s="7" t="inlineStr"/>
-      <c r="K304" s="7" t="inlineStr"/>
-      <c r="L304" s="7" t="inlineStr"/>
-      <c r="M304" s="7" t="inlineStr"/>
-      <c r="N304" s="7" t="inlineStr"/>
-      <c r="O304" s="7" t="inlineStr"/>
-      <c r="P304" s="7" t="inlineStr"/>
-      <c r="Q304" s="7" t="inlineStr"/>
-      <c r="R304" s="7" t="inlineStr"/>
-      <c r="S304" s="7" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="B305" s="7" t="inlineStr">
-        <is>
-          <t>x2x_other_dac_ht_1</t>
-        </is>
-      </c>
-      <c r="C305" s="7" t="inlineStr"/>
-      <c r="D305" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E305" s="7" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-      <c r="F305" s="7" t="n"/>
-      <c r="G305" s="7" t="inlineStr"/>
-      <c r="H305" s="7" t="inlineStr"/>
-      <c r="I305" s="7" t="inlineStr"/>
-      <c r="J305" s="7" t="inlineStr"/>
-      <c r="K305" s="7" t="inlineStr"/>
-      <c r="L305" s="7" t="inlineStr"/>
-      <c r="M305" s="7" t="inlineStr"/>
-      <c r="N305" s="7" t="inlineStr"/>
-      <c r="O305" s="7" t="inlineStr"/>
-      <c r="P305" s="7" t="inlineStr"/>
-      <c r="Q305" s="7" t="inlineStr"/>
-      <c r="R305" s="7" t="inlineStr"/>
-      <c r="S305" s="7" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="B306" s="7" t="inlineStr">
-        <is>
-          <t>x2x_other_dac_ht_1</t>
-        </is>
-      </c>
-      <c r="C306" s="7" t="inlineStr"/>
-      <c r="D306" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E306" s="7" t="n"/>
-      <c r="F306" s="7" t="inlineStr">
-        <is>
-          <t>emi_co2_neg_air_dacc</t>
-        </is>
-      </c>
-      <c r="G306" s="7" t="inlineStr"/>
-      <c r="H306" s="7" t="inlineStr"/>
-      <c r="I306" s="7" t="inlineStr"/>
-      <c r="J306" s="7" t="inlineStr"/>
-      <c r="K306" s="7" t="inlineStr"/>
-      <c r="L306" s="7" t="inlineStr"/>
-      <c r="M306" s="7" t="inlineStr"/>
-      <c r="N306" s="7" t="inlineStr"/>
-      <c r="O306" s="7" t="inlineStr"/>
-      <c r="P306" s="7" t="inlineStr"/>
-      <c r="Q306" s="7" t="inlineStr"/>
-      <c r="R306" s="7" t="inlineStr"/>
-      <c r="S306" s="7" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="B307" s="8" t="inlineStr">
-        <is>
-          <t>x2x_other_dac_lt_1</t>
-        </is>
-      </c>
-      <c r="C307" s="8" t="inlineStr"/>
-      <c r="D307" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E307" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F307" s="8" t="n"/>
-      <c r="G307" s="8" t="inlineStr"/>
-      <c r="H307" s="8" t="inlineStr"/>
-      <c r="I307" s="8" t="inlineStr"/>
-      <c r="J307" s="8" t="inlineStr"/>
-      <c r="K307" s="8" t="inlineStr"/>
-      <c r="L307" s="8" t="inlineStr"/>
-      <c r="M307" s="8" t="inlineStr"/>
-      <c r="N307" s="8" t="inlineStr"/>
-      <c r="O307" s="8" t="inlineStr"/>
-      <c r="P307" s="8" t="inlineStr"/>
-      <c r="Q307" s="8" t="inlineStr"/>
-      <c r="R307" s="8" t="inlineStr"/>
-      <c r="S307" s="8" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="B308" s="8" t="inlineStr">
-        <is>
-          <t>x2x_other_dac_lt_1</t>
-        </is>
-      </c>
-      <c r="C308" s="8" t="inlineStr"/>
-      <c r="D308" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E308" s="8" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-      <c r="F308" s="8" t="n"/>
-      <c r="G308" s="8" t="inlineStr"/>
-      <c r="H308" s="8" t="inlineStr"/>
-      <c r="I308" s="8" t="inlineStr"/>
-      <c r="J308" s="8" t="inlineStr"/>
-      <c r="K308" s="8" t="inlineStr"/>
-      <c r="L308" s="8" t="inlineStr"/>
-      <c r="M308" s="8" t="inlineStr"/>
-      <c r="N308" s="8" t="inlineStr"/>
-      <c r="O308" s="8" t="inlineStr"/>
-      <c r="P308" s="8" t="inlineStr"/>
-      <c r="Q308" s="8" t="inlineStr"/>
-      <c r="R308" s="8" t="inlineStr"/>
-      <c r="S308" s="8" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="B309" s="8" t="inlineStr">
-        <is>
-          <t>x2x_other_dac_lt_1</t>
-        </is>
-      </c>
-      <c r="C309" s="8" t="inlineStr"/>
-      <c r="D309" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E309" s="8" t="n"/>
-      <c r="F309" s="8" t="inlineStr">
-        <is>
-          <t>emi_co2_neg_air_dacc</t>
-        </is>
-      </c>
-      <c r="G309" s="8" t="inlineStr"/>
-      <c r="H309" s="8" t="inlineStr"/>
-      <c r="I309" s="8" t="inlineStr"/>
-      <c r="J309" s="8" t="inlineStr"/>
-      <c r="K309" s="8" t="inlineStr"/>
-      <c r="L309" s="8" t="inlineStr"/>
-      <c r="M309" s="8" t="inlineStr"/>
-      <c r="N309" s="8" t="inlineStr"/>
-      <c r="O309" s="8" t="inlineStr"/>
-      <c r="P309" s="8" t="inlineStr"/>
-      <c r="Q309" s="8" t="inlineStr"/>
-      <c r="R309" s="8" t="inlineStr"/>
-      <c r="S309" s="8" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="B310" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_aec_1</t>
-        </is>
-      </c>
-      <c r="C310" s="7" t="inlineStr"/>
-      <c r="D310" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E310" s="7" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F310" s="7" t="n"/>
-      <c r="G310" s="7" t="inlineStr"/>
-      <c r="H310" s="7" t="inlineStr"/>
-      <c r="I310" s="7" t="inlineStr"/>
-      <c r="J310" s="7" t="inlineStr"/>
-      <c r="K310" s="7" t="inlineStr"/>
-      <c r="L310" s="7" t="inlineStr"/>
-      <c r="M310" s="7" t="inlineStr"/>
-      <c r="N310" s="7" t="inlineStr"/>
-      <c r="O310" s="7" t="inlineStr"/>
-      <c r="P310" s="7" t="inlineStr"/>
-      <c r="Q310" s="7" t="inlineStr"/>
-      <c r="R310" s="7" t="inlineStr"/>
-      <c r="S310" s="7" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="B311" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_aec_1</t>
-        </is>
-      </c>
-      <c r="C311" s="7" t="inlineStr"/>
-      <c r="D311" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E311" s="7" t="n"/>
-      <c r="F311" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="G311" s="7" t="inlineStr"/>
-      <c r="H311" s="7" t="inlineStr"/>
-      <c r="I311" s="7" t="inlineStr"/>
-      <c r="J311" s="7" t="inlineStr"/>
-      <c r="K311" s="7" t="inlineStr"/>
-      <c r="L311" s="7" t="inlineStr"/>
-      <c r="M311" s="7" t="inlineStr"/>
-      <c r="N311" s="7" t="inlineStr"/>
-      <c r="O311" s="7" t="inlineStr"/>
-      <c r="P311" s="7" t="inlineStr"/>
-      <c r="Q311" s="7" t="inlineStr"/>
-      <c r="R311" s="7" t="inlineStr"/>
-      <c r="S311" s="7" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="B312" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_aec_1</t>
-        </is>
-      </c>
-      <c r="C312" s="7" t="inlineStr"/>
-      <c r="D312" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E312" s="7" t="n"/>
-      <c r="F312" s="7" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-      <c r="G312" s="7" t="inlineStr"/>
-      <c r="H312" s="7" t="inlineStr"/>
-      <c r="I312" s="7" t="inlineStr"/>
-      <c r="J312" s="7" t="inlineStr"/>
-      <c r="K312" s="7" t="inlineStr"/>
-      <c r="L312" s="7" t="inlineStr"/>
-      <c r="M312" s="7" t="inlineStr"/>
-      <c r="N312" s="7" t="inlineStr"/>
-      <c r="O312" s="7" t="inlineStr"/>
-      <c r="P312" s="7" t="inlineStr"/>
-      <c r="Q312" s="7" t="inlineStr"/>
-      <c r="R312" s="7" t="inlineStr"/>
-      <c r="S312" s="7" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="B313" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom_1</t>
-        </is>
-      </c>
-      <c r="C313" s="8" t="inlineStr"/>
-      <c r="D313" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E313" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F313" s="8" t="n"/>
-      <c r="G313" s="8" t="inlineStr"/>
-      <c r="H313" s="8" t="inlineStr"/>
-      <c r="I313" s="8" t="inlineStr"/>
-      <c r="J313" s="8" t="inlineStr"/>
-      <c r="K313" s="8" t="inlineStr"/>
-      <c r="L313" s="8" t="inlineStr"/>
-      <c r="M313" s="8" t="inlineStr"/>
-      <c r="N313" s="8" t="inlineStr"/>
-      <c r="O313" s="8" t="inlineStr"/>
-      <c r="P313" s="8" t="inlineStr"/>
-      <c r="Q313" s="8" t="inlineStr"/>
-      <c r="R313" s="8" t="inlineStr"/>
-      <c r="S313" s="8" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="B314" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom_1</t>
-        </is>
-      </c>
-      <c r="C314" s="8" t="inlineStr"/>
-      <c r="D314" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E314" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="F314" s="8" t="n"/>
-      <c r="G314" s="8" t="inlineStr"/>
-      <c r="H314" s="8" t="inlineStr"/>
-      <c r="I314" s="8" t="inlineStr"/>
-      <c r="J314" s="8" t="inlineStr"/>
-      <c r="K314" s="8" t="inlineStr"/>
-      <c r="L314" s="8" t="inlineStr"/>
-      <c r="M314" s="8" t="inlineStr"/>
-      <c r="N314" s="8" t="inlineStr"/>
-      <c r="O314" s="8" t="inlineStr"/>
-      <c r="P314" s="8" t="inlineStr"/>
-      <c r="Q314" s="8" t="inlineStr"/>
-      <c r="R314" s="8" t="inlineStr"/>
-      <c r="S314" s="8" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="B315" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom_1</t>
-        </is>
-      </c>
-      <c r="C315" s="8" t="inlineStr"/>
-      <c r="D315" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E315" s="8" t="inlineStr">
-        <is>
-          <t>emi_co2_reusable</t>
-        </is>
-      </c>
-      <c r="F315" s="8" t="n"/>
-      <c r="G315" s="8" t="inlineStr"/>
-      <c r="H315" s="8" t="inlineStr"/>
-      <c r="I315" s="8" t="inlineStr"/>
-      <c r="J315" s="8" t="inlineStr"/>
-      <c r="K315" s="8" t="inlineStr"/>
-      <c r="L315" s="8" t="inlineStr"/>
-      <c r="M315" s="8" t="inlineStr"/>
-      <c r="N315" s="8" t="inlineStr"/>
-      <c r="O315" s="8" t="inlineStr"/>
-      <c r="P315" s="8" t="inlineStr"/>
-      <c r="Q315" s="8" t="inlineStr"/>
-      <c r="R315" s="8" t="inlineStr"/>
-      <c r="S315" s="8" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="B316" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom_1</t>
-        </is>
-      </c>
-      <c r="C316" s="8" t="inlineStr"/>
-      <c r="D316" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E316" s="8" t="n"/>
-      <c r="F316" s="8" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-      <c r="G316" s="8" t="inlineStr"/>
-      <c r="H316" s="8" t="inlineStr"/>
-      <c r="I316" s="8" t="inlineStr"/>
-      <c r="J316" s="8" t="inlineStr"/>
-      <c r="K316" s="8" t="inlineStr"/>
-      <c r="L316" s="8" t="inlineStr"/>
-      <c r="M316" s="8" t="inlineStr"/>
-      <c r="N316" s="8" t="inlineStr"/>
-      <c r="O316" s="8" t="inlineStr"/>
-      <c r="P316" s="8" t="inlineStr"/>
-      <c r="Q316" s="8" t="inlineStr"/>
-      <c r="R316" s="8" t="inlineStr"/>
-      <c r="S316" s="8" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="B317" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom_1</t>
-        </is>
-      </c>
-      <c r="C317" s="8" t="inlineStr"/>
-      <c r="D317" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E317" s="8" t="n"/>
-      <c r="F317" s="8" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-      <c r="G317" s="8" t="inlineStr"/>
-      <c r="H317" s="8" t="inlineStr"/>
-      <c r="I317" s="8" t="inlineStr"/>
-      <c r="J317" s="8" t="inlineStr"/>
-      <c r="K317" s="8" t="inlineStr"/>
-      <c r="L317" s="8" t="inlineStr"/>
-      <c r="M317" s="8" t="inlineStr"/>
-      <c r="N317" s="8" t="inlineStr"/>
-      <c r="O317" s="8" t="inlineStr"/>
-      <c r="P317" s="8" t="inlineStr"/>
-      <c r="Q317" s="8" t="inlineStr"/>
-      <c r="R317" s="8" t="inlineStr"/>
-      <c r="S317" s="8" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="B318" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_pemec_1</t>
-        </is>
-      </c>
-      <c r="C318" s="7" t="inlineStr"/>
-      <c r="D318" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E318" s="7" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F318" s="7" t="n"/>
-      <c r="G318" s="7" t="inlineStr"/>
-      <c r="H318" s="7" t="inlineStr"/>
-      <c r="I318" s="7" t="inlineStr"/>
-      <c r="J318" s="7" t="inlineStr"/>
-      <c r="K318" s="7" t="inlineStr"/>
-      <c r="L318" s="7" t="inlineStr"/>
-      <c r="M318" s="7" t="inlineStr"/>
-      <c r="N318" s="7" t="inlineStr"/>
-      <c r="O318" s="7" t="inlineStr"/>
-      <c r="P318" s="7" t="inlineStr"/>
-      <c r="Q318" s="7" t="inlineStr"/>
-      <c r="R318" s="7" t="inlineStr"/>
-      <c r="S318" s="7" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="B319" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_pemec_1</t>
-        </is>
-      </c>
-      <c r="C319" s="7" t="inlineStr"/>
-      <c r="D319" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E319" s="7" t="n"/>
-      <c r="F319" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="G319" s="7" t="inlineStr"/>
-      <c r="H319" s="7" t="inlineStr"/>
-      <c r="I319" s="7" t="inlineStr"/>
-      <c r="J319" s="7" t="inlineStr"/>
-      <c r="K319" s="7" t="inlineStr"/>
-      <c r="L319" s="7" t="inlineStr"/>
-      <c r="M319" s="7" t="inlineStr"/>
-      <c r="N319" s="7" t="inlineStr"/>
-      <c r="O319" s="7" t="inlineStr"/>
-      <c r="P319" s="7" t="inlineStr"/>
-      <c r="Q319" s="7" t="inlineStr"/>
-      <c r="R319" s="7" t="inlineStr"/>
-      <c r="S319" s="7" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="B320" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_pemec_1</t>
-        </is>
-      </c>
-      <c r="C320" s="7" t="inlineStr"/>
-      <c r="D320" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E320" s="7" t="n"/>
-      <c r="F320" s="7" t="inlineStr">
-        <is>
-          <t>sec_heat_low</t>
-        </is>
-      </c>
-      <c r="G320" s="7" t="inlineStr"/>
-      <c r="H320" s="7" t="inlineStr"/>
-      <c r="I320" s="7" t="inlineStr"/>
-      <c r="J320" s="7" t="inlineStr"/>
-      <c r="K320" s="7" t="inlineStr"/>
-      <c r="L320" s="7" t="inlineStr"/>
-      <c r="M320" s="7" t="inlineStr"/>
-      <c r="N320" s="7" t="inlineStr"/>
-      <c r="O320" s="7" t="inlineStr"/>
-      <c r="P320" s="7" t="inlineStr"/>
-      <c r="Q320" s="7" t="inlineStr"/>
-      <c r="R320" s="7" t="inlineStr"/>
-      <c r="S320" s="7" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="B321" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm_1</t>
-        </is>
-      </c>
-      <c r="C321" s="8" t="inlineStr"/>
-      <c r="D321" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E321" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F321" s="8" t="n"/>
-      <c r="G321" s="8" t="inlineStr"/>
-      <c r="H321" s="8" t="inlineStr"/>
-      <c r="I321" s="8" t="inlineStr"/>
-      <c r="J321" s="8" t="inlineStr"/>
-      <c r="K321" s="8" t="inlineStr"/>
-      <c r="L321" s="8" t="inlineStr"/>
-      <c r="M321" s="8" t="inlineStr"/>
-      <c r="N321" s="8" t="inlineStr"/>
-      <c r="O321" s="8" t="inlineStr"/>
-      <c r="P321" s="8" t="inlineStr"/>
-      <c r="Q321" s="8" t="inlineStr"/>
-      <c r="R321" s="8" t="inlineStr"/>
-      <c r="S321" s="8" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="B322" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm_1</t>
-        </is>
-      </c>
-      <c r="C322" s="8" t="inlineStr"/>
-      <c r="D322" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E322" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="F322" s="8" t="n"/>
-      <c r="G322" s="8" t="inlineStr"/>
-      <c r="H322" s="8" t="inlineStr"/>
-      <c r="I322" s="8" t="inlineStr"/>
-      <c r="J322" s="8" t="inlineStr"/>
-      <c r="K322" s="8" t="inlineStr"/>
-      <c r="L322" s="8" t="inlineStr"/>
-      <c r="M322" s="8" t="inlineStr"/>
-      <c r="N322" s="8" t="inlineStr"/>
-      <c r="O322" s="8" t="inlineStr"/>
-      <c r="P322" s="8" t="inlineStr"/>
-      <c r="Q322" s="8" t="inlineStr"/>
-      <c r="R322" s="8" t="inlineStr"/>
-      <c r="S322" s="8" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="B323" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm_1</t>
-        </is>
-      </c>
-      <c r="C323" s="8" t="inlineStr"/>
-      <c r="D323" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E323" s="8" t="inlineStr">
-        <is>
-          <t>emi_co2_reusable</t>
-        </is>
-      </c>
-      <c r="F323" s="8" t="n"/>
-      <c r="G323" s="8" t="inlineStr"/>
-      <c r="H323" s="8" t="inlineStr"/>
-      <c r="I323" s="8" t="inlineStr"/>
-      <c r="J323" s="8" t="inlineStr"/>
-      <c r="K323" s="8" t="inlineStr"/>
-      <c r="L323" s="8" t="inlineStr"/>
-      <c r="M323" s="8" t="inlineStr"/>
-      <c r="N323" s="8" t="inlineStr"/>
-      <c r="O323" s="8" t="inlineStr"/>
-      <c r="P323" s="8" t="inlineStr"/>
-      <c r="Q323" s="8" t="inlineStr"/>
-      <c r="R323" s="8" t="inlineStr"/>
-      <c r="S323" s="8" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="B324" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm_1</t>
-        </is>
-      </c>
-      <c r="C324" s="8" t="inlineStr"/>
-      <c r="D324" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E324" s="8" t="n"/>
-      <c r="F324" s="8" t="inlineStr">
-        <is>
-          <t>sec_natural_gas_syn</t>
-        </is>
-      </c>
-      <c r="G324" s="8" t="inlineStr"/>
-      <c r="H324" s="8" t="inlineStr"/>
-      <c r="I324" s="8" t="inlineStr"/>
-      <c r="J324" s="8" t="inlineStr"/>
-      <c r="K324" s="8" t="inlineStr"/>
-      <c r="L324" s="8" t="inlineStr"/>
-      <c r="M324" s="8" t="inlineStr"/>
-      <c r="N324" s="8" t="inlineStr"/>
-      <c r="O324" s="8" t="inlineStr"/>
-      <c r="P324" s="8" t="inlineStr"/>
-      <c r="Q324" s="8" t="inlineStr"/>
-      <c r="R324" s="8" t="inlineStr"/>
-      <c r="S324" s="8" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="B325" s="8" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm_1</t>
-        </is>
-      </c>
-      <c r="C325" s="8" t="inlineStr"/>
-      <c r="D325" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E325" s="8" t="n"/>
-      <c r="F325" s="8" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-      <c r="G325" s="8" t="inlineStr"/>
-      <c r="H325" s="8" t="inlineStr"/>
-      <c r="I325" s="8" t="inlineStr"/>
-      <c r="J325" s="8" t="inlineStr"/>
-      <c r="K325" s="8" t="inlineStr"/>
-      <c r="L325" s="8" t="inlineStr"/>
-      <c r="M325" s="8" t="inlineStr"/>
-      <c r="N325" s="8" t="inlineStr"/>
-      <c r="O325" s="8" t="inlineStr"/>
-      <c r="P325" s="8" t="inlineStr"/>
-      <c r="Q325" s="8" t="inlineStr"/>
-      <c r="R325" s="8" t="inlineStr"/>
-      <c r="S325" s="8" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="B326" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_soec_1</t>
-        </is>
-      </c>
-      <c r="C326" s="7" t="inlineStr"/>
-      <c r="D326" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E326" s="7" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F326" s="7" t="n"/>
-      <c r="G326" s="7" t="inlineStr"/>
-      <c r="H326" s="7" t="inlineStr"/>
-      <c r="I326" s="7" t="inlineStr"/>
-      <c r="J326" s="7" t="inlineStr"/>
-      <c r="K326" s="7" t="inlineStr"/>
-      <c r="L326" s="7" t="inlineStr"/>
-      <c r="M326" s="7" t="inlineStr"/>
-      <c r="N326" s="7" t="inlineStr"/>
-      <c r="O326" s="7" t="inlineStr"/>
-      <c r="P326" s="7" t="inlineStr"/>
-      <c r="Q326" s="7" t="inlineStr"/>
-      <c r="R326" s="7" t="inlineStr"/>
-      <c r="S326" s="7" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="B327" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_soec_1</t>
-        </is>
-      </c>
-      <c r="C327" s="7" t="inlineStr"/>
-      <c r="D327" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E327" s="7" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-      <c r="F327" s="7" t="n"/>
-      <c r="G327" s="7" t="inlineStr"/>
-      <c r="H327" s="7" t="inlineStr"/>
-      <c r="I327" s="7" t="inlineStr"/>
-      <c r="J327" s="7" t="inlineStr"/>
-      <c r="K327" s="7" t="inlineStr"/>
-      <c r="L327" s="7" t="inlineStr"/>
-      <c r="M327" s="7" t="inlineStr"/>
-      <c r="N327" s="7" t="inlineStr"/>
-      <c r="O327" s="7" t="inlineStr"/>
-      <c r="P327" s="7" t="inlineStr"/>
-      <c r="Q327" s="7" t="inlineStr"/>
-      <c r="R327" s="7" t="inlineStr"/>
-      <c r="S327" s="7" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="B328" s="7" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_soec_1</t>
-        </is>
-      </c>
-      <c r="C328" s="7" t="inlineStr"/>
-      <c r="D328" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E328" s="7" t="n"/>
-      <c r="F328" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="G328" s="7" t="inlineStr"/>
-      <c r="H328" s="7" t="inlineStr"/>
-      <c r="I328" s="7" t="inlineStr"/>
-      <c r="J328" s="7" t="inlineStr"/>
-      <c r="K328" s="7" t="inlineStr"/>
-      <c r="L328" s="7" t="inlineStr"/>
-      <c r="M328" s="7" t="inlineStr"/>
-      <c r="N328" s="7" t="inlineStr"/>
-      <c r="O328" s="7" t="inlineStr"/>
-      <c r="P328" s="7" t="inlineStr"/>
-      <c r="Q328" s="7" t="inlineStr"/>
-      <c r="R328" s="7" t="inlineStr"/>
-      <c r="S328" s="7" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="B329" s="8" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_lohc_1</t>
-        </is>
-      </c>
-      <c r="C329" s="8" t="inlineStr"/>
-      <c r="D329" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E329" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="F329" s="8" t="n"/>
-      <c r="G329" s="8" t="inlineStr"/>
-      <c r="H329" s="8" t="inlineStr"/>
-      <c r="I329" s="8" t="inlineStr"/>
-      <c r="J329" s="8" t="inlineStr"/>
-      <c r="K329" s="8" t="inlineStr"/>
-      <c r="L329" s="8" t="inlineStr"/>
-      <c r="M329" s="8" t="inlineStr"/>
-      <c r="N329" s="8" t="inlineStr"/>
-      <c r="O329" s="8" t="inlineStr"/>
-      <c r="P329" s="8" t="inlineStr"/>
-      <c r="Q329" s="8" t="inlineStr"/>
-      <c r="R329" s="8" t="inlineStr"/>
-      <c r="S329" s="8" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="B330" s="8" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_lohc_1</t>
-        </is>
-      </c>
-      <c r="C330" s="8" t="inlineStr"/>
-      <c r="D330" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E330" s="8" t="n"/>
-      <c r="F330" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="G330" s="8" t="inlineStr"/>
-      <c r="H330" s="8" t="inlineStr"/>
-      <c r="I330" s="8" t="inlineStr"/>
-      <c r="J330" s="8" t="inlineStr"/>
-      <c r="K330" s="8" t="inlineStr"/>
-      <c r="L330" s="8" t="inlineStr"/>
-      <c r="M330" s="8" t="inlineStr"/>
-      <c r="N330" s="8" t="inlineStr"/>
-      <c r="O330" s="8" t="inlineStr"/>
-      <c r="P330" s="8" t="inlineStr"/>
-      <c r="Q330" s="8" t="inlineStr"/>
-      <c r="R330" s="8" t="inlineStr"/>
-      <c r="S330" s="8" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="B331" s="7" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_new_1</t>
-        </is>
-      </c>
-      <c r="C331" s="7" t="inlineStr"/>
-      <c r="D331" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E331" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="F331" s="7" t="n"/>
-      <c r="G331" s="7" t="inlineStr"/>
-      <c r="H331" s="7" t="inlineStr"/>
-      <c r="I331" s="7" t="inlineStr"/>
-      <c r="J331" s="7" t="inlineStr"/>
-      <c r="K331" s="7" t="inlineStr"/>
-      <c r="L331" s="7" t="inlineStr"/>
-      <c r="M331" s="7" t="inlineStr"/>
-      <c r="N331" s="7" t="inlineStr"/>
-      <c r="O331" s="7" t="inlineStr"/>
-      <c r="P331" s="7" t="inlineStr"/>
-      <c r="Q331" s="7" t="inlineStr"/>
-      <c r="R331" s="7" t="inlineStr"/>
-      <c r="S331" s="7" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="B332" s="7" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_new_1</t>
-        </is>
-      </c>
-      <c r="C332" s="7" t="inlineStr"/>
-      <c r="D332" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E332" s="7" t="n"/>
-      <c r="F332" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="G332" s="7" t="inlineStr"/>
-      <c r="H332" s="7" t="inlineStr"/>
-      <c r="I332" s="7" t="inlineStr"/>
-      <c r="J332" s="7" t="inlineStr"/>
-      <c r="K332" s="7" t="inlineStr"/>
-      <c r="L332" s="7" t="inlineStr"/>
-      <c r="M332" s="7" t="inlineStr"/>
-      <c r="N332" s="7" t="inlineStr"/>
-      <c r="O332" s="7" t="inlineStr"/>
-      <c r="P332" s="7" t="inlineStr"/>
-      <c r="Q332" s="7" t="inlineStr"/>
-      <c r="R332" s="7" t="inlineStr"/>
-      <c r="S332" s="7" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="B333" s="8" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_retrofit_1</t>
-        </is>
-      </c>
-      <c r="C333" s="8" t="inlineStr"/>
-      <c r="D333" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E333" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="F333" s="8" t="n"/>
-      <c r="G333" s="8" t="inlineStr"/>
-      <c r="H333" s="8" t="inlineStr"/>
-      <c r="I333" s="8" t="inlineStr"/>
-      <c r="J333" s="8" t="inlineStr"/>
-      <c r="K333" s="8" t="inlineStr"/>
-      <c r="L333" s="8" t="inlineStr"/>
-      <c r="M333" s="8" t="inlineStr"/>
-      <c r="N333" s="8" t="inlineStr"/>
-      <c r="O333" s="8" t="inlineStr"/>
-      <c r="P333" s="8" t="inlineStr"/>
-      <c r="Q333" s="8" t="inlineStr"/>
-      <c r="R333" s="8" t="inlineStr"/>
-      <c r="S333" s="8" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="B334" s="8" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_retrofit_1</t>
-        </is>
-      </c>
-      <c r="C334" s="8" t="inlineStr"/>
-      <c r="D334" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E334" s="8" t="n"/>
-      <c r="F334" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-      <c r="G334" s="8" t="inlineStr"/>
-      <c r="H334" s="8" t="inlineStr"/>
-      <c r="I334" s="8" t="inlineStr"/>
-      <c r="J334" s="8" t="inlineStr"/>
-      <c r="K334" s="8" t="inlineStr"/>
-      <c r="L334" s="8" t="inlineStr"/>
-      <c r="M334" s="8" t="inlineStr"/>
-      <c r="N334" s="8" t="inlineStr"/>
-      <c r="O334" s="8" t="inlineStr"/>
-      <c r="P334" s="8" t="inlineStr"/>
-      <c r="Q334" s="8" t="inlineStr"/>
-      <c r="R334" s="8" t="inlineStr"/>
-      <c r="S334" s="8" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="B335" s="7" t="inlineStr">
-        <is>
-          <t>x2x_storage_methane_0</t>
-        </is>
-      </c>
-      <c r="C335" s="7" t="inlineStr"/>
-      <c r="D335" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E335" s="7" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-      <c r="F335" s="7" t="n"/>
-      <c r="G335" s="7" t="inlineStr"/>
-      <c r="H335" s="7" t="inlineStr"/>
-      <c r="I335" s="7" t="inlineStr"/>
-      <c r="J335" s="7" t="inlineStr"/>
-      <c r="K335" s="7" t="inlineStr"/>
-      <c r="L335" s="7" t="inlineStr"/>
-      <c r="M335" s="7" t="inlineStr"/>
-      <c r="N335" s="7" t="inlineStr"/>
-      <c r="O335" s="7" t="inlineStr"/>
-      <c r="P335" s="7" t="inlineStr"/>
-      <c r="Q335" s="7" t="inlineStr"/>
-      <c r="R335" s="7" t="inlineStr"/>
-      <c r="S335" s="7" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="B336" s="7" t="inlineStr">
-        <is>
-          <t>x2x_storage_methane_0</t>
-        </is>
-      </c>
-      <c r="C336" s="7" t="inlineStr"/>
-      <c r="D336" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E336" s="7" t="n"/>
-      <c r="F336" s="7" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-      <c r="G336" s="7" t="inlineStr"/>
-      <c r="H336" s="7" t="inlineStr"/>
-      <c r="I336" s="7" t="inlineStr"/>
-      <c r="J336" s="7" t="inlineStr"/>
-      <c r="K336" s="7" t="inlineStr"/>
-      <c r="L336" s="7" t="inlineStr"/>
-      <c r="M336" s="7" t="inlineStr"/>
-      <c r="N336" s="7" t="inlineStr"/>
-      <c r="O336" s="7" t="inlineStr"/>
-      <c r="P336" s="7" t="inlineStr"/>
-      <c r="Q336" s="7" t="inlineStr"/>
-      <c r="R336" s="7" t="inlineStr"/>
-      <c r="S336" s="7" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="B337" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr_1</t>
-        </is>
-      </c>
-      <c r="C337" s="8" t="inlineStr"/>
-      <c r="D337" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E337" s="8" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-      <c r="F337" s="8" t="n"/>
-      <c r="G337" s="8" t="inlineStr"/>
-      <c r="H337" s="8" t="inlineStr"/>
-      <c r="I337" s="8" t="inlineStr"/>
-      <c r="J337" s="8" t="inlineStr"/>
-      <c r="K337" s="8" t="inlineStr"/>
-      <c r="L337" s="8" t="inlineStr"/>
-      <c r="M337" s="8" t="inlineStr"/>
-      <c r="N337" s="8" t="inlineStr"/>
-      <c r="O337" s="8" t="inlineStr"/>
-      <c r="P337" s="8" t="inlineStr"/>
-      <c r="Q337" s="8" t="inlineStr"/>
-      <c r="R337" s="8" t="inlineStr"/>
-      <c r="S337" s="8" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="B338" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr_1</t>
-        </is>
-      </c>
-      <c r="C338" s="8" t="inlineStr"/>
-      <c r="D338" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E338" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F338" s="8" t="n"/>
-      <c r="G338" s="8" t="inlineStr"/>
-      <c r="H338" s="8" t="inlineStr"/>
-      <c r="I338" s="8" t="inlineStr"/>
-      <c r="J338" s="8" t="inlineStr"/>
-      <c r="K338" s="8" t="inlineStr"/>
-      <c r="L338" s="8" t="inlineStr"/>
-      <c r="M338" s="8" t="inlineStr"/>
-      <c r="N338" s="8" t="inlineStr"/>
-      <c r="O338" s="8" t="inlineStr"/>
-      <c r="P338" s="8" t="inlineStr"/>
-      <c r="Q338" s="8" t="inlineStr"/>
-      <c r="R338" s="8" t="inlineStr"/>
-      <c r="S338" s="8" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="B339" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr_1</t>
-        </is>
-      </c>
-      <c r="C339" s="8" t="inlineStr"/>
-      <c r="D339" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E339" s="8" t="n"/>
-      <c r="F339" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="G339" s="8" t="inlineStr"/>
-      <c r="H339" s="8" t="inlineStr"/>
-      <c r="I339" s="8" t="inlineStr"/>
-      <c r="J339" s="8" t="inlineStr"/>
-      <c r="K339" s="8" t="inlineStr"/>
-      <c r="L339" s="8" t="inlineStr"/>
-      <c r="M339" s="8" t="inlineStr"/>
-      <c r="N339" s="8" t="inlineStr"/>
-      <c r="O339" s="8" t="inlineStr"/>
-      <c r="P339" s="8" t="inlineStr"/>
-      <c r="Q339" s="8" t="inlineStr"/>
-      <c r="R339" s="8" t="inlineStr"/>
-      <c r="S339" s="8" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="B340" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr_1</t>
-        </is>
-      </c>
-      <c r="C340" s="8" t="inlineStr"/>
-      <c r="D340" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E340" s="8" t="n"/>
-      <c r="F340" s="8" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-      <c r="G340" s="8" t="inlineStr"/>
-      <c r="H340" s="8" t="inlineStr"/>
-      <c r="I340" s="8" t="inlineStr"/>
-      <c r="J340" s="8" t="inlineStr"/>
-      <c r="K340" s="8" t="inlineStr"/>
-      <c r="L340" s="8" t="inlineStr"/>
-      <c r="M340" s="8" t="inlineStr"/>
-      <c r="N340" s="8" t="inlineStr"/>
-      <c r="O340" s="8" t="inlineStr"/>
-      <c r="P340" s="8" t="inlineStr"/>
-      <c r="Q340" s="8" t="inlineStr"/>
-      <c r="R340" s="8" t="inlineStr"/>
-      <c r="S340" s="8" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="B341" s="7" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_0</t>
-        </is>
-      </c>
-      <c r="C341" s="7" t="inlineStr"/>
-      <c r="D341" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E341" s="7" t="inlineStr">
-        <is>
-          <t>sec_syngas_sr</t>
-        </is>
-      </c>
-      <c r="F341" s="7" t="n"/>
-      <c r="G341" s="7" t="inlineStr"/>
-      <c r="H341" s="7" t="inlineStr"/>
-      <c r="I341" s="7" t="inlineStr"/>
-      <c r="J341" s="7" t="inlineStr"/>
-      <c r="K341" s="7" t="inlineStr"/>
-      <c r="L341" s="7" t="inlineStr"/>
-      <c r="M341" s="7" t="inlineStr"/>
-      <c r="N341" s="7" t="inlineStr"/>
-      <c r="O341" s="7" t="inlineStr"/>
-      <c r="P341" s="7" t="inlineStr"/>
-      <c r="Q341" s="7" t="inlineStr"/>
-      <c r="R341" s="7" t="inlineStr"/>
-      <c r="S341" s="7" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="B342" s="7" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_0</t>
-        </is>
-      </c>
-      <c r="C342" s="7" t="inlineStr"/>
-      <c r="D342" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E342" s="7" t="n"/>
-      <c r="F342" s="7" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="G342" s="7" t="inlineStr"/>
-      <c r="H342" s="7" t="inlineStr"/>
-      <c r="I342" s="7" t="inlineStr"/>
-      <c r="J342" s="7" t="inlineStr"/>
-      <c r="K342" s="7" t="inlineStr"/>
-      <c r="L342" s="7" t="inlineStr"/>
-      <c r="M342" s="7" t="inlineStr"/>
-      <c r="N342" s="7" t="inlineStr"/>
-      <c r="O342" s="7" t="inlineStr"/>
-      <c r="P342" s="7" t="inlineStr"/>
-      <c r="Q342" s="7" t="inlineStr"/>
-      <c r="R342" s="7" t="inlineStr"/>
-      <c r="S342" s="7" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="B343" s="7" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_0</t>
-        </is>
-      </c>
-      <c r="C343" s="7" t="inlineStr"/>
-      <c r="D343" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E343" s="7" t="n"/>
-      <c r="F343" s="7" t="inlineStr">
-        <is>
-          <t>emi_co2_p_x2x</t>
-        </is>
-      </c>
-      <c r="G343" s="7" t="inlineStr"/>
-      <c r="H343" s="7" t="inlineStr"/>
-      <c r="I343" s="7" t="inlineStr"/>
-      <c r="J343" s="7" t="inlineStr"/>
-      <c r="K343" s="7" t="inlineStr"/>
-      <c r="L343" s="7" t="inlineStr"/>
-      <c r="M343" s="7" t="inlineStr"/>
-      <c r="N343" s="7" t="inlineStr"/>
-      <c r="O343" s="7" t="inlineStr"/>
-      <c r="P343" s="7" t="inlineStr"/>
-      <c r="Q343" s="7" t="inlineStr"/>
-      <c r="R343" s="7" t="inlineStr"/>
-      <c r="S343" s="7" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="B344" s="7" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_0</t>
-        </is>
-      </c>
-      <c r="C344" s="7" t="inlineStr"/>
-      <c r="D344" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E344" s="7" t="n"/>
-      <c r="F344" s="7" t="inlineStr">
-        <is>
-          <t>emi_ch4_p_x2x</t>
-        </is>
-      </c>
-      <c r="G344" s="7" t="inlineStr"/>
-      <c r="H344" s="7" t="inlineStr"/>
-      <c r="I344" s="7" t="inlineStr"/>
-      <c r="J344" s="7" t="inlineStr"/>
-      <c r="K344" s="7" t="inlineStr"/>
-      <c r="L344" s="7" t="inlineStr"/>
-      <c r="M344" s="7" t="inlineStr"/>
-      <c r="N344" s="7" t="inlineStr"/>
-      <c r="O344" s="7" t="inlineStr"/>
-      <c r="P344" s="7" t="inlineStr"/>
-      <c r="Q344" s="7" t="inlineStr"/>
-      <c r="R344" s="7" t="inlineStr"/>
-      <c r="S344" s="7" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="B345" s="7" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_0</t>
-        </is>
-      </c>
-      <c r="C345" s="7" t="inlineStr"/>
-      <c r="D345" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E345" s="7" t="n"/>
-      <c r="F345" s="7" t="inlineStr">
-        <is>
-          <t>emi_n2o_p_x2x</t>
-        </is>
-      </c>
-      <c r="G345" s="7" t="inlineStr"/>
-      <c r="H345" s="7" t="inlineStr"/>
-      <c r="I345" s="7" t="inlineStr"/>
-      <c r="J345" s="7" t="inlineStr"/>
-      <c r="K345" s="7" t="inlineStr"/>
-      <c r="L345" s="7" t="inlineStr"/>
-      <c r="M345" s="7" t="inlineStr"/>
-      <c r="N345" s="7" t="inlineStr"/>
-      <c r="O345" s="7" t="inlineStr"/>
-      <c r="P345" s="7" t="inlineStr"/>
-      <c r="Q345" s="7" t="inlineStr"/>
-      <c r="R345" s="7" t="inlineStr"/>
-      <c r="S345" s="7" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="B346" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_1</t>
-        </is>
-      </c>
-      <c r="C346" s="8" t="inlineStr"/>
-      <c r="D346" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E346" s="8" t="inlineStr">
-        <is>
-          <t>sec_syngas_sr</t>
-        </is>
-      </c>
-      <c r="F346" s="8" t="n"/>
-      <c r="G346" s="8" t="inlineStr"/>
-      <c r="H346" s="8" t="inlineStr"/>
-      <c r="I346" s="8" t="inlineStr"/>
-      <c r="J346" s="8" t="inlineStr"/>
-      <c r="K346" s="8" t="inlineStr"/>
-      <c r="L346" s="8" t="inlineStr"/>
-      <c r="M346" s="8" t="inlineStr"/>
-      <c r="N346" s="8" t="inlineStr"/>
-      <c r="O346" s="8" t="inlineStr"/>
-      <c r="P346" s="8" t="inlineStr"/>
-      <c r="Q346" s="8" t="inlineStr"/>
-      <c r="R346" s="8" t="inlineStr"/>
-      <c r="S346" s="8" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="B347" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_1</t>
-        </is>
-      </c>
-      <c r="C347" s="8" t="inlineStr"/>
-      <c r="D347" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E347" s="8" t="n"/>
-      <c r="F347" s="8" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-      <c r="G347" s="8" t="inlineStr"/>
-      <c r="H347" s="8" t="inlineStr"/>
-      <c r="I347" s="8" t="inlineStr"/>
-      <c r="J347" s="8" t="inlineStr"/>
-      <c r="K347" s="8" t="inlineStr"/>
-      <c r="L347" s="8" t="inlineStr"/>
-      <c r="M347" s="8" t="inlineStr"/>
-      <c r="N347" s="8" t="inlineStr"/>
-      <c r="O347" s="8" t="inlineStr"/>
-      <c r="P347" s="8" t="inlineStr"/>
-      <c r="Q347" s="8" t="inlineStr"/>
-      <c r="R347" s="8" t="inlineStr"/>
-      <c r="S347" s="8" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="B348" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_1</t>
-        </is>
-      </c>
-      <c r="C348" s="8" t="inlineStr"/>
-      <c r="D348" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E348" s="8" t="n"/>
-      <c r="F348" s="8" t="inlineStr">
-        <is>
-          <t>emi_co2_p_x2x</t>
-        </is>
-      </c>
-      <c r="G348" s="8" t="inlineStr"/>
-      <c r="H348" s="8" t="inlineStr"/>
-      <c r="I348" s="8" t="inlineStr"/>
-      <c r="J348" s="8" t="inlineStr"/>
-      <c r="K348" s="8" t="inlineStr"/>
-      <c r="L348" s="8" t="inlineStr"/>
-      <c r="M348" s="8" t="inlineStr"/>
-      <c r="N348" s="8" t="inlineStr"/>
-      <c r="O348" s="8" t="inlineStr"/>
-      <c r="P348" s="8" t="inlineStr"/>
-      <c r="Q348" s="8" t="inlineStr"/>
-      <c r="R348" s="8" t="inlineStr"/>
-      <c r="S348" s="8" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="B349" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_1</t>
-        </is>
-      </c>
-      <c r="C349" s="8" t="inlineStr"/>
-      <c r="D349" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E349" s="8" t="n"/>
-      <c r="F349" s="8" t="inlineStr">
-        <is>
-          <t>emi_ch4_p_x2x</t>
-        </is>
-      </c>
-      <c r="G349" s="8" t="inlineStr"/>
-      <c r="H349" s="8" t="inlineStr"/>
-      <c r="I349" s="8" t="inlineStr"/>
-      <c r="J349" s="8" t="inlineStr"/>
-      <c r="K349" s="8" t="inlineStr"/>
-      <c r="L349" s="8" t="inlineStr"/>
-      <c r="M349" s="8" t="inlineStr"/>
-      <c r="N349" s="8" t="inlineStr"/>
-      <c r="O349" s="8" t="inlineStr"/>
-      <c r="P349" s="8" t="inlineStr"/>
-      <c r="Q349" s="8" t="inlineStr"/>
-      <c r="R349" s="8" t="inlineStr"/>
-      <c r="S349" s="8" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="B350" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_1</t>
-        </is>
-      </c>
-      <c r="C350" s="8" t="inlineStr"/>
-      <c r="D350" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E350" s="8" t="n"/>
-      <c r="F350" s="8" t="inlineStr">
-        <is>
-          <t>emi_n2o_p_x2x</t>
-        </is>
-      </c>
-      <c r="G350" s="8" t="inlineStr"/>
-      <c r="H350" s="8" t="inlineStr"/>
-      <c r="I350" s="8" t="inlineStr"/>
-      <c r="J350" s="8" t="inlineStr"/>
-      <c r="K350" s="8" t="inlineStr"/>
-      <c r="L350" s="8" t="inlineStr"/>
-      <c r="M350" s="8" t="inlineStr"/>
-      <c r="N350" s="8" t="inlineStr"/>
-      <c r="O350" s="8" t="inlineStr"/>
-      <c r="P350" s="8" t="inlineStr"/>
-      <c r="Q350" s="8" t="inlineStr"/>
-      <c r="R350" s="8" t="inlineStr"/>
-      <c r="S350" s="8" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="B351" s="7" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_syngas_0</t>
-        </is>
-      </c>
-      <c r="C351" s="7" t="inlineStr"/>
-      <c r="D351" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E351" s="7" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-      <c r="F351" s="7" t="n"/>
-      <c r="G351" s="7" t="inlineStr"/>
-      <c r="H351" s="7" t="inlineStr"/>
-      <c r="I351" s="7" t="inlineStr"/>
-      <c r="J351" s="7" t="inlineStr"/>
-      <c r="K351" s="7" t="inlineStr"/>
-      <c r="L351" s="7" t="inlineStr"/>
-      <c r="M351" s="7" t="inlineStr"/>
-      <c r="N351" s="7" t="inlineStr"/>
-      <c r="O351" s="7" t="inlineStr"/>
-      <c r="P351" s="7" t="inlineStr"/>
-      <c r="Q351" s="7" t="inlineStr"/>
-      <c r="R351" s="7" t="inlineStr"/>
-      <c r="S351" s="7" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="B352" s="7" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_syngas_0</t>
-        </is>
-      </c>
-      <c r="C352" s="7" t="inlineStr"/>
-      <c r="D352" s="7" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E352" s="7" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F352" s="7" t="n"/>
-      <c r="G352" s="7" t="inlineStr"/>
-      <c r="H352" s="7" t="inlineStr"/>
-      <c r="I352" s="7" t="inlineStr"/>
-      <c r="J352" s="7" t="inlineStr"/>
-      <c r="K352" s="7" t="inlineStr"/>
-      <c r="L352" s="7" t="inlineStr"/>
-      <c r="M352" s="7" t="inlineStr"/>
-      <c r="N352" s="7" t="inlineStr"/>
-      <c r="O352" s="7" t="inlineStr"/>
-      <c r="P352" s="7" t="inlineStr"/>
-      <c r="Q352" s="7" t="inlineStr"/>
-      <c r="R352" s="7" t="inlineStr"/>
-      <c r="S352" s="7" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="B353" s="7" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_syngas_0</t>
-        </is>
-      </c>
-      <c r="C353" s="7" t="inlineStr"/>
-      <c r="D353" s="7" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E353" s="7" t="n"/>
-      <c r="F353" s="7" t="inlineStr">
-        <is>
-          <t>sec_syngas_sr</t>
-        </is>
-      </c>
-      <c r="G353" s="7" t="inlineStr"/>
-      <c r="H353" s="7" t="inlineStr"/>
-      <c r="I353" s="7" t="inlineStr"/>
-      <c r="J353" s="7" t="inlineStr"/>
-      <c r="K353" s="7" t="inlineStr"/>
-      <c r="L353" s="7" t="inlineStr"/>
-      <c r="M353" s="7" t="inlineStr"/>
-      <c r="N353" s="7" t="inlineStr"/>
-      <c r="O353" s="7" t="inlineStr"/>
-      <c r="P353" s="7" t="inlineStr"/>
-      <c r="Q353" s="7" t="inlineStr"/>
-      <c r="R353" s="7" t="inlineStr"/>
-      <c r="S353" s="7" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="B354" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_syngas_1</t>
-        </is>
-      </c>
-      <c r="C354" s="8" t="inlineStr"/>
-      <c r="D354" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E354" s="8" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-      <c r="F354" s="8" t="n"/>
-      <c r="G354" s="8" t="inlineStr"/>
-      <c r="H354" s="8" t="inlineStr"/>
-      <c r="I354" s="8" t="inlineStr"/>
-      <c r="J354" s="8" t="inlineStr"/>
-      <c r="K354" s="8" t="inlineStr"/>
-      <c r="L354" s="8" t="inlineStr"/>
-      <c r="M354" s="8" t="inlineStr"/>
-      <c r="N354" s="8" t="inlineStr"/>
-      <c r="O354" s="8" t="inlineStr"/>
-      <c r="P354" s="8" t="inlineStr"/>
-      <c r="Q354" s="8" t="inlineStr"/>
-      <c r="R354" s="8" t="inlineStr"/>
-      <c r="S354" s="8" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="B355" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_syngas_1</t>
-        </is>
-      </c>
-      <c r="C355" s="8" t="inlineStr"/>
-      <c r="D355" s="8" t="inlineStr">
-        <is>
-          <t>INPUT</t>
-        </is>
-      </c>
-      <c r="E355" s="8" t="inlineStr">
-        <is>
-          <t>sec_elec</t>
-        </is>
-      </c>
-      <c r="F355" s="8" t="n"/>
-      <c r="G355" s="8" t="inlineStr"/>
-      <c r="H355" s="8" t="inlineStr"/>
-      <c r="I355" s="8" t="inlineStr"/>
-      <c r="J355" s="8" t="inlineStr"/>
-      <c r="K355" s="8" t="inlineStr"/>
-      <c r="L355" s="8" t="inlineStr"/>
-      <c r="M355" s="8" t="inlineStr"/>
-      <c r="N355" s="8" t="inlineStr"/>
-      <c r="O355" s="8" t="inlineStr"/>
-      <c r="P355" s="8" t="inlineStr"/>
-      <c r="Q355" s="8" t="inlineStr"/>
-      <c r="R355" s="8" t="inlineStr"/>
-      <c r="S355" s="8" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="B356" s="8" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_syngas_1</t>
-        </is>
-      </c>
-      <c r="C356" s="8" t="inlineStr"/>
-      <c r="D356" s="8" t="inlineStr">
-        <is>
-          <t>OUTPUT</t>
-        </is>
-      </c>
-      <c r="E356" s="8" t="n"/>
-      <c r="F356" s="8" t="inlineStr">
-        <is>
-          <t>sec_syngas_sr</t>
-        </is>
-      </c>
-      <c r="G356" s="8" t="inlineStr"/>
-      <c r="H356" s="8" t="inlineStr"/>
-      <c r="I356" s="8" t="inlineStr"/>
-      <c r="J356" s="8" t="inlineStr"/>
-      <c r="K356" s="8" t="inlineStr"/>
-      <c r="L356" s="8" t="inlineStr"/>
-      <c r="M356" s="8" t="inlineStr"/>
-      <c r="N356" s="8" t="inlineStr"/>
-      <c r="O356" s="8" t="inlineStr"/>
-      <c r="P356" s="8" t="inlineStr"/>
-      <c r="Q356" s="8" t="inlineStr"/>
-      <c r="R356" s="8" t="inlineStr"/>
-      <c r="S356" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14751,7 +12255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I46"/>
+  <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14864,36 +12368,36 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>emi_ch4_p_x2x</t>
+          <t>pri_geoth_heat</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pri_natural_gas</t>
+          <t>iip_steel_raw_iron</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>iip_steel_sponge_iron</t>
+          <t>sec_heavy_fuel_oil</t>
         </is>
       </c>
     </row>
@@ -14905,19 +12409,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sec_biogas</t>
+          <t>iip_coke</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>emi_co2_reusable</t>
+          <t>iip_steel_scrap</t>
         </is>
       </c>
     </row>
@@ -14929,7 +12433,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pri_coal</t>
+          <t>sec_methane</t>
         </is>
       </c>
     </row>
@@ -14941,7 +12445,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pri_geoth_heat</t>
+          <t>sec_waste_heat_high_steel</t>
         </is>
       </c>
     </row>
@@ -14953,7 +12457,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sec_natural_gas_syn</t>
+          <t>pri_natural_gas</t>
         </is>
       </c>
     </row>
@@ -14965,103 +12469,103 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>emi_co2_neg_fuel_cc_ind</t>
+          <t>emi_ch4_f_ind</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEM</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>exo_steel</t>
+          <t>sec_elec_ind</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>emi_ch4_f_ind</t>
+          <t>iip_steel_sponge_iron</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>iip_steel_scrap</t>
+          <t>iip_heat_proc</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sec_elec</t>
+          <t>emi_co2_f_ind</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>iip_steel_sinter</t>
+          <t>pri_solar_radiation</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>emi_co2_f_pow</t>
+          <t>iip_steel_sintert</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>emi_n2o_p_x2x</t>
+          <t>iip_steel_crudesteel</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sec_waste_heat_high_steel</t>
+          <t>iip_steel_sinter</t>
         </is>
       </c>
     </row>
@@ -15073,19 +12577,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>iip_heat_proc</t>
+          <t>sec_hydrogen</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>emi_n2o_f_ind</t>
+          <t>iip_steel_iron_pellets</t>
         </is>
       </c>
     </row>
@@ -15097,19 +12601,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>iip_steel_iron_pellets</t>
+          <t>iip_steel_blafu_slag</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>DEM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sec_elec_ind</t>
+          <t>exo_steel</t>
         </is>
       </c>
     </row>
@@ -15121,19 +12625,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>iip_cooling</t>
+          <t>sec_heat_high_other</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>iip_steel_blafu_slag</t>
+          <t>emi_n2o_f_ind</t>
         </is>
       </c>
     </row>
@@ -15145,31 +12649,31 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>iip_steel_sintert</t>
+          <t>pri_envir_heat</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>iip_steel_crudesteel</t>
+          <t>sec_heat_high</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>ENV</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sec_heat_low</t>
+          <t>emi_co2_neg_fuel_cc_ind</t>
         </is>
       </c>
     </row>
@@ -15181,199 +12685,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sec_methane_orig</t>
+          <t>pri_coal</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENV</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>emi_co2_neg_imp</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>iip_coke</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>sec_methane</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MAT</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>iip_steel_raw_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ENV</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>emi_co2_neg_air_dacc</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>sec_heat_high</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>pri_envir_heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>sec_syngas_sr</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ENV</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>emi_co2_f_ind</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>sec_heat_high_other</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>sec_hydrogen_orig</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ENV</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>emi_co2_p_x2x</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>sec_hydrogen</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>sec_heavy_fuel_oil</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>generic_commodity</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>NRG</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>pri_solar_radiation</t>
+          <t>iip_cooling</t>
         </is>
       </c>
     </row>
@@ -15388,7 +12712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I59"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15858,318 +13182,6 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>x2x_delivery_hydrogen_pipeline_new_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>x2x_delivery_hydrogen_pipeline_retrofit_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>x2x_delivery_methane_pipeline_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>x2x_g2p_pemfc_ls_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>x2x_g2p_sofc_ls_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>x2x_import_biogas</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>x2x_import_coal</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>x2x_import_electricity_from_plug</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>x2x_import_hydrogen_renewable</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>x2x_other_biogas_treatment</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>x2x_other_dac_ht_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>x2x_other_dac_lt_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_aec_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_biom_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_pemec_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_sabm_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>x2x_p2gas_soec_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_lohc_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_new_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>x2x_storage_hydrogen_retrofit_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>x2x_storage_methane_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_mpyr_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_psa_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_syngas_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>x2x_x2gas_sr_syngas_1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
